--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -143,18 +143,6 @@
     <t>13.0000</t>
   </si>
   <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -569,7 +557,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 6:00 PM</t>
+    <t>Saturday, 21 June, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1507,7 +1495,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1517,14 +1505,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1533,14 +1521,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1557,7 +1545,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1573,7 +1561,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1583,11 +1571,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1599,14 +1587,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1623,7 +1611,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1639,7 +1627,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1649,11 +1637,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1665,14 +1653,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1682,14 +1670,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1698,14 +1686,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1722,7 +1710,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1738,7 +1726,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1748,14 +1736,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1764,14 +1752,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,11 +1769,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1797,14 +1785,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1814,14 +1802,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1830,14 +1818,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1847,11 +1835,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1863,14 +1851,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1880,11 +1868,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1896,14 +1884,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1913,7 +1901,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1936,7 +1924,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1946,14 +1934,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1962,7 +1950,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1979,11 +1967,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1995,14 +1983,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2012,11 +2000,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2028,31 +2016,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2061,31 +2049,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2094,14 +2082,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2111,11 +2099,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2127,14 +2115,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2144,14 +2132,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2160,14 +2148,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,14 +2165,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2193,14 +2181,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,11 +2198,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2226,14 +2214,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2231,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2259,20 +2247,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2299,24 +2287,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2325,7 +2313,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2342,11 +2330,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2358,7 +2346,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2375,14 +2363,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2391,14 +2379,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,14 +2396,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2424,14 +2412,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,14 +2429,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,14 +2445,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,14 +2462,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2490,14 +2478,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2495,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,14 +2511,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2528,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2580,7 +2568,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2629,21 +2617,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2655,7 +2643,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2668,18 +2656,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2688,7 +2676,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2701,18 +2689,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,7 +2709,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2734,15 +2722,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2754,20 +2742,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2800,7 +2788,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2811,7 +2799,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2827,24 +2815,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2853,28 +2841,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2886,20 +2874,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2907,7 +2895,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2926,92 +2914,59 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2545.9299999999998</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>182</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>183</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
         <v>184</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="A60" s="7">
-        <v>54</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c t="s" r="C60" s="8">
-        <v>185</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c t="s" r="H60" s="9">
-        <v>175</v>
-      </c>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c t="s" r="L60" s="10">
-        <v>105</v>
-      </c>
-      <c r="M60" s="10"/>
-      <c t="s" r="N60" s="8">
-        <v>179</v>
-      </c>
-      <c r="O60" s="8"/>
-      <c t="s" r="P60" s="11">
-        <v>90</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2576.9299999999998</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>186</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>187</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>188</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3285,15 +3240,10 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -557,7 +557,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 6:01 PM</t>
+    <t>Saturday, 21 June, 2025 6:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>136.50</t>
   </si>
   <si>
-    <t>136.5000</t>
+    <t>226.5900</t>
   </si>
   <si>
     <t>TAMSUL 0.4MG 30 CAPSULES</t>
@@ -557,7 +557,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 6:04 PM</t>
+    <t>Saturday, 21 June, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2188,7 +2188,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2205,7 +2205,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2936,7 +2936,7 @@
     </row>
     <row r="60" ht="24.75" customHeight="1">
       <c r="P60" s="13">
-        <v>2545.9299999999998</v>
+        <v>2636.02</v>
       </c>
       <c r="Q60" s="13"/>
     </row>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -557,7 +557,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 6:05 PM</t>
+    <t>Saturday, 21 June, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -323,6 +323,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PEOPO-OTIC EAR DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -431,6 +440,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -557,7 +575,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 6:07 PM</t>
+    <t>Saturday, 21 June, 2025 6:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2056,7 +2074,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2089,7 +2107,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2122,7 +2140,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2132,14 +2150,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2155,7 +2173,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2165,14 +2183,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2205,7 +2223,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2221,7 +2239,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2238,7 +2256,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2254,21 +2272,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2280,20 +2298,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2304,7 +2322,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,7 +2388,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2386,7 +2404,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2396,14 +2414,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2412,14 +2430,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2429,14 +2447,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2452,7 +2470,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2462,14 +2480,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2485,7 +2503,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2495,11 +2513,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2511,14 +2529,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2528,11 +2546,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2544,14 +2562,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2561,11 +2579,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2577,14 +2595,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2594,14 +2612,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2610,28 +2628,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2643,31 +2661,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>161</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2693,11 +2711,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2709,7 +2727,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2726,14 +2744,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2742,14 +2760,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2759,11 +2777,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2775,14 +2793,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2792,14 +2810,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2808,14 +2826,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2825,11 +2843,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2848,7 +2866,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2858,14 +2876,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2874,14 +2892,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2891,11 +2909,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2907,14 +2925,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2924,7 +2942,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -2935,38 +2953,104 @@
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2636.02</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>182</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>183</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
         <v>184</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>101</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>185</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>187</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>177</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>101</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>181</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2704.02</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>188</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>189</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>190</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3240,10 +3324,20 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -575,7 +575,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 6:08 PM</t>
+    <t>Saturday, 21 June, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -575,7 +575,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 6:15 PM</t>
+    <t>Saturday, 21 June, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -164,6 +164,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -206,6 +215,12 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>ESTIKAN 20MG 14 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -245,6 +260,18 @@
     <t>240.0000</t>
   </si>
   <si>
+    <t>HYDRO-SAFE SALTE 10SACHTS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>ICANDRA 50 MG 30 TAB.</t>
   </si>
   <si>
@@ -314,9 +341,6 @@
     <t>5:2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -443,12 +467,6 @@
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -497,6 +515,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -512,9 +542,6 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -537,6 +564,15 @@
   </si>
   <si>
     <t>2.5000</t>
+  </si>
+  <si>
+    <t>شامبو كلير حريمي 180مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
@@ -1546,7 +1582,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1556,11 +1592,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1572,14 +1608,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1612,7 +1648,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1622,14 +1658,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1638,14 +1674,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1678,7 +1714,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1695,7 +1731,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1711,7 +1747,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1721,14 +1757,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1737,14 +1773,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1754,11 +1790,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1770,14 +1806,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1787,14 +1823,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1803,14 +1839,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1820,14 +1856,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1836,14 +1872,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1853,14 +1889,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1869,31 +1905,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1909,7 +1945,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1919,11 +1955,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1935,14 +1971,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1952,14 +1988,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1975,7 +2011,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1985,14 +2021,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2008,7 +2044,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2018,14 +2054,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2034,31 +2070,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2067,14 +2103,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2084,11 +2120,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2100,14 +2136,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2117,11 +2153,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2133,31 +2169,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2166,14 +2202,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2183,14 +2219,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2199,14 +2235,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2216,11 +2252,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2232,14 +2268,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2249,14 +2285,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2265,14 +2301,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2282,11 +2318,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2298,31 +2334,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2331,7 +2367,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2348,14 +2384,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2364,14 +2400,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2381,14 +2417,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2397,28 +2433,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2430,14 +2466,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2447,14 +2483,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2470,7 +2506,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2503,7 +2539,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2520,7 +2556,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2536,7 +2572,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2546,14 +2582,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2562,14 +2598,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2579,11 +2615,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2595,14 +2631,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2612,14 +2648,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2628,14 +2664,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2645,14 +2681,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,14 +2697,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2678,11 +2714,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2694,31 +2730,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2727,31 +2763,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2760,28 +2796,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2793,20 +2829,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2833,21 +2869,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2859,31 +2895,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2892,28 +2928,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2925,7 +2961,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2938,15 +2974,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2958,28 +2994,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2991,66 +3027,231 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2704.02</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>188</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
         <v>189</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>84</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>190</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>192</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>55</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>84</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>193</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>194</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>35</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>84</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>193</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>195</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>196</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>84</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>197</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>199</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>189</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>84</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>193</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2982.02</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>200</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>201</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>202</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3334,10 +3535,35 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -374,6 +383,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>21.4500</t>
+  </si>
+  <si>
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -611,7 +629,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 7:20 PM</t>
+    <t>Saturday, 21 June, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1648,7 +1666,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1665,7 +1683,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1681,7 +1699,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1691,14 +1709,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1707,14 +1725,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1747,7 +1765,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1757,14 +1775,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1773,14 +1791,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1790,7 +1808,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1813,7 +1831,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1823,14 +1841,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1839,14 +1857,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1863,7 +1881,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1879,7 +1897,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1912,21 +1930,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1938,20 +1956,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1962,7 +1980,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1978,7 +1996,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2011,7 +2029,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2021,7 +2039,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2054,11 +2072,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2087,14 +2105,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2103,7 +2121,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2120,7 +2138,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2143,7 +2161,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2176,24 +2194,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2202,20 +2220,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2226,7 +2244,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2242,7 +2260,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2275,7 +2293,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2308,7 +2326,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2318,14 +2336,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2358,7 +2376,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2374,7 +2392,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2384,14 +2402,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2407,7 +2425,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2424,7 +2442,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2440,24 +2458,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2483,14 +2501,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2499,20 +2517,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2523,7 +2541,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2556,7 +2574,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2572,7 +2590,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2714,11 +2732,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2780,11 +2798,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2813,14 +2831,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2829,28 +2847,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2862,28 +2880,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2895,31 +2913,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>169</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2928,7 +2946,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2941,15 +2959,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2961,7 +2979,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2974,18 +2992,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2994,28 +3012,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3027,28 +3045,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3060,31 +3078,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3093,28 +3111,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3133,24 +3151,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3159,28 +3177,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3192,66 +3210,132 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2982.02</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>200</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>201</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
         <v>202</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>87</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>203</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>205</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>195</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>87</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>199</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3053.9699999999998</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>206</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>207</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>208</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3560,10 +3644,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -629,7 +629,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 7:22 PM</t>
+    <t>Saturday, 21 June, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -485,6 +485,9 @@
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -572,6 +575,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>سلاكه ازن خشب صغيره</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>شامبو كلير 1 كيس</t>
   </si>
   <si>
@@ -629,7 +641,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 7:26 PM</t>
+    <t>Saturday, 21 June, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2755,7 +2767,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2765,14 +2777,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2821,7 +2833,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,14 +2876,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,11 +2909,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2913,28 +2925,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2946,14 +2958,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2963,11 +2975,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2979,7 +2991,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2996,14 +3008,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3012,7 +3024,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3029,14 +3041,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3062,11 +3074,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3078,14 +3090,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3095,11 +3107,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3111,7 +3123,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3128,11 +3140,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3161,14 +3173,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3194,11 +3206,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3210,14 +3222,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3227,14 +3239,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3243,14 +3255,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3264,7 +3276,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3276,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3293,7 +3305,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3304,38 +3316,104 @@
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3053.9699999999998</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>205</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>206</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>87</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>207</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>208</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>209</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>199</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>87</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>203</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3088.9699999999998</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>210</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>211</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>212</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3654,10 +3732,20 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 7:32 PM</t>
+    <t>Saturday, 21 June, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -164,6 +164,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -318,6 +327,9 @@
   </si>
   <si>
     <t>12.8700</t>
+  </si>
+  <si>
+    <t>NACTALIA 1 MILK 400 GM</t>
   </si>
   <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
@@ -1645,7 +1657,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1655,11 +1667,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1671,14 +1683,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1695,7 +1707,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1711,7 +1723,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1728,7 +1740,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1744,7 +1756,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1754,14 +1766,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1770,14 +1782,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1810,7 +1822,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1820,14 +1832,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1836,14 +1848,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1853,7 +1865,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1876,7 +1888,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,14 +1898,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1902,14 +1914,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1926,7 +1938,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1942,7 +1954,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1975,21 +1987,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2001,20 +2013,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2025,7 +2037,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2041,7 +2053,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2074,7 +2086,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,7 +2096,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2117,11 +2129,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2133,14 +2145,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,14 +2162,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,14 +2178,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,11 +2195,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2199,14 +2211,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,11 +2228,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2232,31 +2244,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2265,14 +2277,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,11 +2294,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2298,31 +2310,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2331,14 +2343,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,11 +2360,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2364,14 +2376,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2393,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,14 +2409,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2414,14 +2426,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2430,7 +2442,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2447,14 +2459,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2463,14 +2475,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,14 +2492,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2496,14 +2508,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2525,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,31 +2541,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2562,14 +2574,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,14 +2591,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,31 +2607,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,7 +2640,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2645,14 +2657,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2661,14 +2673,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2690,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,14 +2706,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,14 +2723,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,14 +2739,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2756,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2767,7 +2779,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,11 +2789,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2793,14 +2805,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,14 +2822,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2833,7 +2845,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,11 +2855,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2876,11 +2888,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2892,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,11 +2921,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2925,14 +2937,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2942,14 +2954,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,28 +2970,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2991,28 +3003,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3024,31 +3036,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,7 +3069,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3070,15 +3082,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3090,7 +3102,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3103,18 +3115,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3130,21 +3142,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3156,28 +3168,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3189,7 +3201,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3202,15 +3214,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3222,31 +3234,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3255,28 +3267,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3288,31 +3300,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3321,20 +3333,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3342,7 +3354,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3354,66 +3366,132 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3088.9699999999998</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>209</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
         <v>210</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>90</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
         <v>211</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>212</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>213</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>203</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>90</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>207</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3381.9699999999998</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>214</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>215</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>216</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3742,10 +3820,20 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -653,7 +653,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 7:39 PM</t>
+    <t>Saturday, 21 June, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -653,7 +653,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 7:56 PM</t>
+    <t>Saturday, 21 June, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -119,6 +128,18 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -188,9 +209,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -239,6 +257,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>GANTOLIEF 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>12.3750</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -443,9 +470,6 @@
     <t>TEMPO COOL</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>34.19</t>
   </si>
   <si>
@@ -524,6 +548,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>VONASPIRE 20MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -653,7 +686,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 7:57 PM</t>
+    <t>Saturday, 21 June, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1311,7 +1344,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1320,14 +1353,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1337,11 +1370,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -1353,14 +1386,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1370,14 +1403,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1386,14 +1419,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1403,11 +1436,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1419,14 +1452,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1443,7 +1476,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1459,7 +1492,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1476,7 +1509,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1485,14 +1518,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1502,14 +1535,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1518,14 +1551,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1535,11 +1568,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1551,14 +1584,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1568,14 +1601,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1584,14 +1617,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1608,7 +1641,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1624,7 +1657,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1634,14 +1667,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1650,14 +1683,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1667,11 +1700,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1683,14 +1716,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1707,7 +1740,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1723,7 +1756,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1740,7 +1773,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1756,7 +1789,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1766,14 +1799,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1789,7 +1822,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1799,14 +1832,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1815,14 +1848,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1832,14 +1865,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1848,14 +1881,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1865,11 +1898,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1881,14 +1914,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1898,11 +1931,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1914,14 +1947,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1931,14 +1964,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1947,14 +1980,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1964,11 +1997,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1980,14 +2013,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1997,14 +2030,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2013,28 +2046,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2046,14 +2079,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2063,14 +2096,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2079,14 +2112,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2096,14 +2129,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2112,31 +2145,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2152,7 +2185,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2162,14 +2195,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2178,14 +2211,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2195,11 +2228,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2211,14 +2244,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2228,11 +2261,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2244,14 +2277,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2261,11 +2294,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2277,14 +2310,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2294,14 +2327,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2310,31 +2343,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2343,14 +2376,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2360,14 +2393,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2376,14 +2409,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2393,14 +2426,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2409,20 +2442,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2449,7 +2482,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2466,7 +2499,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2482,7 +2515,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2492,14 +2525,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2515,7 +2548,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2532,7 +2565,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2548,7 +2581,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2565,7 +2598,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2581,7 +2614,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2591,14 +2624,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2614,24 +2647,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2640,14 +2673,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2657,14 +2690,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2673,14 +2706,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2690,11 +2723,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2706,31 +2739,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2739,14 +2772,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2756,14 +2789,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2779,7 +2812,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2796,7 +2829,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2812,7 +2845,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2822,11 +2855,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2838,14 +2871,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2855,14 +2888,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2871,14 +2904,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2921,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,14 +2937,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,14 +2954,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2937,14 +2970,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,14 +2987,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2987,11 +3020,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3003,14 +3036,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3020,14 +3053,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3036,28 +3069,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3069,28 +3102,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3102,31 +3135,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>180</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3135,31 +3168,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3168,31 +3201,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3201,31 +3234,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,31 +3267,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3274,24 +3307,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,31 +3333,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,31 +3366,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3366,31 +3399,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3399,20 +3432,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3423,7 +3456,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3439,59 +3472,191 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>101</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3381.9699999999998</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>217</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>65</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>99</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>218</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>219</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>38</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>99</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>218</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>220</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>221</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>99</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>222</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>224</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
         <v>214</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>215</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>216</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>99</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>218</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3499.1849999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>225</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>226</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>227</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3830,10 +3995,30 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -86,13 +86,16 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>2:5</t>
+    <t>2:2</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
@@ -164,6 +167,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>COMFORT GEL 50 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -347,9 +359,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -413,6 +422,18 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -434,9 +455,6 @@
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>35.6400</t>
   </si>
   <si>
@@ -605,7 +623,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -686,7 +704,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 8:01 PM</t>
+    <t>Saturday, 21 June, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1443,7 +1461,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1452,14 +1470,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1469,11 +1487,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>17</v>
@@ -1485,7 +1503,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1502,11 +1520,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1518,14 +1536,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1535,14 +1553,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1551,14 +1569,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1568,11 +1586,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1584,14 +1602,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1601,11 +1619,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>17</v>
@@ -1617,14 +1635,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1634,11 +1652,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>17</v>
@@ -1650,14 +1668,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1690,7 +1708,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1700,14 +1718,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1733,14 +1751,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1749,7 +1767,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1766,11 +1784,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1782,14 +1800,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1799,11 +1817,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1815,14 +1833,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1832,14 +1850,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1848,14 +1866,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1865,14 +1883,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1881,14 +1899,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1905,7 +1923,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1921,7 +1939,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1931,11 +1949,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1947,14 +1965,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1964,14 +1982,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1980,14 +1998,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1997,14 +2015,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2013,14 +2031,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2030,14 +2048,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2046,14 +2064,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2070,7 +2088,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2086,7 +2104,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2096,14 +2114,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2112,14 +2130,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2129,11 +2147,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -2145,20 +2163,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2185,24 +2203,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2211,14 +2229,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2228,11 +2246,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2244,14 +2262,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2261,11 +2279,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2277,14 +2295,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2294,7 +2312,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2317,7 +2335,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2327,14 +2345,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2343,14 +2361,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2360,11 +2378,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>17</v>
@@ -2376,14 +2394,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2393,7 +2411,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2416,7 +2434,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2449,24 +2467,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2475,20 +2493,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2499,7 +2517,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2515,7 +2533,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2548,7 +2566,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2581,7 +2599,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2591,11 +2609,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2607,14 +2625,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2624,14 +2642,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2640,14 +2658,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2657,14 +2675,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2673,14 +2691,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2690,14 +2708,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2713,7 +2731,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2730,7 +2748,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2746,13 +2764,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2763,7 +2781,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2779,7 +2797,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2796,7 +2814,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2812,13 +2830,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2829,7 +2847,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2845,7 +2863,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2862,7 +2880,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2878,7 +2896,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2888,14 +2906,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2904,14 +2922,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2921,14 +2939,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2937,14 +2955,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2954,14 +2972,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2970,14 +2988,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2987,11 +3005,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -3003,14 +3021,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3020,14 +3038,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3036,14 +3054,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3053,11 +3071,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -3069,14 +3087,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,11 +3104,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3102,14 +3120,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,14 +3137,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3135,14 +3153,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3152,14 +3170,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3168,14 +3186,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3185,14 +3203,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3201,28 +3219,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>17</v>
@@ -3234,28 +3252,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>17</v>
@@ -3267,31 +3285,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>191</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3300,28 +3318,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3333,31 +3351,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3366,28 +3384,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>17</v>
@@ -3406,21 +3424,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3432,28 +3450,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>17</v>
@@ -3465,31 +3483,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3498,28 +3516,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3538,24 +3556,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3564,28 +3582,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -3597,66 +3615,132 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3499.1849999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>225</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>226</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
         <v>227</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>103</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>228</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>230</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>220</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>103</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>224</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3636.9549999999999</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>231</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>232</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>233</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4015,10 +4099,20 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -356,6 +356,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -443,6 +449,18 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
   </si>
   <si>
@@ -671,21 +689,24 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
     <t>110.0000</t>
   </si>
   <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>44:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>قطن ازن صغير</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -693,12 +714,6 @@
   </si>
   <si>
     <t>18:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
   </si>
   <si>
     <t>مناديل بكر فاين</t>
@@ -2335,7 +2350,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2345,14 +2360,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2361,14 +2376,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2378,14 +2393,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2394,14 +2409,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2411,11 +2426,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>17</v>
@@ -2444,11 +2459,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>17</v>
@@ -2460,14 +2475,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2477,11 +2492,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>17</v>
@@ -2493,31 +2508,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2526,31 +2541,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2559,14 +2574,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2576,11 +2591,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>17</v>
@@ -2592,14 +2607,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2609,14 +2624,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2625,14 +2640,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2642,14 +2657,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2658,14 +2673,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2675,14 +2690,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2691,14 +2706,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2708,14 +2723,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2724,7 +2739,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2741,14 +2756,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2797,7 +2812,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2814,7 +2829,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2830,13 +2845,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2847,7 +2862,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2863,7 +2878,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2880,7 +2895,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2896,13 +2911,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2913,7 +2928,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2946,7 +2961,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2962,7 +2977,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2972,14 +2987,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3038,14 +3053,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3054,14 +3069,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3071,11 +3086,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3104,14 +3119,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3137,11 +3152,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3170,11 +3185,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3219,14 +3234,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3236,14 +3251,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3252,14 +3267,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3269,14 +3284,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3285,28 +3300,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>17</v>
@@ -3318,28 +3333,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3368,14 +3383,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>204</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3384,7 +3399,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3401,11 +3416,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>17</v>
@@ -3417,7 +3432,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3434,14 +3449,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>17</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3450,14 +3465,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3467,11 +3482,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>17</v>
@@ -3490,7 +3505,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3500,11 +3515,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3516,7 +3531,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3533,11 +3548,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3566,14 +3581,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3582,14 +3597,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3599,11 +3614,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -3622,7 +3637,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3632,14 +3647,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3648,14 +3663,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3665,11 +3680,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>17</v>
@@ -3681,14 +3696,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3698,7 +3713,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3709,38 +3724,137 @@
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3636.9549999999999</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>231</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>232</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>39</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>103</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>230</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>233</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>234</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>103</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>148</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>235</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>147</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>103</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>230</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3711.9549999999999</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>236</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>237</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>238</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4109,10 +4223,25 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -719,7 +719,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 8:06 PM</t>
+    <t>Saturday, 21 June, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -419,6 +419,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>PRIDOCAINE TOPICAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -689,9 +698,6 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
     <t>110.0000</t>
   </si>
   <si>
@@ -719,7 +725,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 8:11 PM</t>
+    <t>Saturday, 21 June, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2614,7 +2620,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2647,7 +2653,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2657,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2673,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2697,7 +2703,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2713,7 +2719,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2723,11 +2729,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>17</v>
@@ -2739,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2763,7 +2769,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2779,7 +2785,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2789,11 +2795,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2805,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2862,7 +2868,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>140</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2878,7 +2884,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2895,7 +2901,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2911,13 +2917,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2944,13 +2950,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2961,7 +2967,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3027,7 +3033,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3043,7 +3049,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3053,14 +3059,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3069,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3119,11 +3125,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>17</v>
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,11 +3158,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3168,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3185,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3208,7 +3214,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3267,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3307,7 +3313,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3317,14 +3323,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3333,14 +3339,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3350,11 +3356,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3366,28 +3372,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3399,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3449,14 +3455,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>210</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3465,7 +3471,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3482,14 +3488,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>17</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,7 +3504,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3515,11 +3521,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3538,7 +3544,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3571,7 +3577,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3581,11 +3587,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>17</v>
@@ -3597,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3637,7 +3643,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3654,7 +3660,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3670,7 +3676,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3680,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3696,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3713,7 +3719,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3729,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3746,7 +3752,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3762,14 +3768,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3779,11 +3785,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -3802,7 +3808,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>147</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3812,49 +3818,82 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>237</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>150</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>103</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>232</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>114</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3711.9549999999999</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>236</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>237</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c t="s" r="Q82" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3766.9549999999999</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
         <v>238</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>239</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>240</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4238,10 +4277,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>74.00</t>
   </si>
   <si>
@@ -122,9 +134,6 @@
     <t>BABY RELIEF 12.5MG 5 SUPP.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>0.0000</t>
   </si>
   <si>
@@ -290,9 +299,6 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -485,6 +491,18 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -521,6 +539,15 @@
     <t>17.0950</t>
   </si>
   <si>
+    <t>TINIFLOXACIN 10 TAB.</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>TIRATAM XR 750MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -605,13 +632,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8646:0</t>
+    <t>8645:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -656,15 +683,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سلاكه ازن خشب صغيره</t>
   </si>
   <si>
@@ -722,10 +749,16 @@
     <t>18:0</t>
   </si>
   <si>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 8:18 PM</t>
+    <t>Saturday, 21 June, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1383,7 +1416,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1392,14 +1425,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1416,7 +1449,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1449,7 +1482,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1482,7 +1515,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1491,14 +1524,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1508,14 +1541,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1531,7 +1564,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1541,14 +1574,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1557,14 +1590,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1574,14 +1607,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1597,7 +1630,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1607,14 +1640,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1623,14 +1656,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1640,14 +1673,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1656,14 +1689,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1673,14 +1706,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1689,14 +1722,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1713,7 +1746,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1729,7 +1762,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1739,14 +1772,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1755,14 +1788,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1779,7 +1812,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1795,7 +1828,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1812,7 +1845,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1828,7 +1861,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1845,7 +1878,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1861,7 +1894,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1871,14 +1904,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1894,7 +1927,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1904,14 +1937,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1927,7 +1960,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1944,7 +1977,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1960,7 +1993,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1970,14 +2003,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1986,14 +2019,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2010,7 +2043,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2026,7 +2059,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,14 +2069,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2052,14 +2085,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,14 +2102,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2092,7 +2125,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2109,7 +2142,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2125,7 +2158,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,14 +2168,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2151,14 +2184,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,14 +2201,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2217,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,14 +2234,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2217,31 +2250,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2250,31 +2283,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2283,14 +2316,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,14 +2333,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2349,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,14 +2366,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2349,14 +2382,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,14 +2399,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2389,7 +2422,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2432,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2415,14 +2448,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,14 +2465,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2448,14 +2481,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2498,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2488,7 +2521,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2531,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,14 +2547,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,14 +2564,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2547,31 +2580,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,31 +2613,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,14 +2646,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2663,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2679,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2696,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,14 +2712,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,14 +2729,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2745,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2762,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,14 +2778,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2762,14 +2795,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,14 +2811,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2828,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2844,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2861,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2851,7 +2884,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,14 +2894,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2877,14 +2910,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2901,7 +2934,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2917,7 +2950,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2934,7 +2967,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2950,13 +2983,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2967,7 +3000,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2983,7 +3016,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3000,7 +3033,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3016,13 +3049,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3033,7 +3066,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3049,7 +3082,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3066,7 +3099,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3082,7 +3115,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3125,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,14 +3141,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3158,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3141,14 +3174,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3191,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3207,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3224,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3240,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3257,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3273,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3290,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,14 +3306,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3323,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3356,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,14 +3372,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3389,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3405,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3422,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,31 +3438,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,31 +3471,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,31 +3504,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3511,24 +3544,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,31 +3570,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,31 +3603,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,31 +3636,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3643,13 +3676,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3657,10 +3690,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,31 +3702,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3715,7 +3748,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3723,10 +3756,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,31 +3768,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,31 +3801,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3801,31 +3834,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,66 +3867,198 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3766.9549999999999</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>238</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>239</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>240</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>243</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>42</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>105</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>241</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>244</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>245</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>105</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>153</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>246</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>211</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>105</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>156</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>248</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>152</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>105</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>241</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>3945.835</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>249</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>250</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>251</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4282,10 +4447,30 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -176,6 +185,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>COMFORT GEL 50 GM</t>
   </si>
   <si>
@@ -458,12 +476,6 @@
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
@@ -725,7 +737,7 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>110.0000</t>
+    <t>165.0000</t>
   </si>
   <si>
     <t>فرشاة اطفال ريتش ديلي</t>
@@ -758,7 +770,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 8:21 PM</t>
+    <t>Saturday, 21 June, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1449,7 +1461,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1458,14 +1470,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1498,7 +1510,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1508,14 +1520,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1524,14 +1536,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1541,14 +1553,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1557,14 +1569,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1574,14 +1586,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1590,14 +1602,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1614,7 +1626,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1630,7 +1642,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1640,14 +1652,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1663,7 +1675,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1673,14 +1685,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1689,14 +1701,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1706,14 +1718,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1722,14 +1734,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1739,14 +1751,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1755,14 +1767,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1779,7 +1791,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1795,7 +1807,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1805,14 +1817,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1821,14 +1833,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1838,14 +1850,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1854,14 +1866,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1878,7 +1890,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1894,7 +1906,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1911,7 +1923,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1927,7 +1939,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1937,14 +1949,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1960,7 +1972,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1977,7 +1989,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1993,7 +2005,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2003,14 +2015,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2026,7 +2038,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2036,11 +2048,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2052,14 +2064,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2069,14 +2081,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2102,14 +2114,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2118,14 +2130,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2135,11 +2147,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2151,14 +2163,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2168,14 +2180,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2191,7 +2203,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2224,7 +2236,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2241,7 +2253,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2257,7 +2269,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2274,7 +2286,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2290,24 +2302,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2333,14 +2345,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2349,20 +2361,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2373,7 +2385,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2389,7 +2401,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2399,7 +2411,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2422,7 +2434,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2465,11 +2477,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2481,14 +2493,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2498,14 +2510,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2514,14 +2526,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,14 +2543,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,14 +2592,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,14 +2609,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2620,24 +2632,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2646,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2663,14 +2675,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2679,20 +2691,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2703,7 +2715,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2719,7 +2731,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2736,7 +2748,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2752,7 +2764,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2762,14 +2774,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2778,14 +2790,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2795,14 +2807,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2828,14 +2840,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,14 +2873,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2894,14 +2906,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2910,14 +2922,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2927,14 +2939,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2960,14 +2972,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2976,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,14 +3005,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>145</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3026,14 +3038,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3042,31 +3054,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3075,14 +3087,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3092,11 +3104,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3108,31 +3120,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3158,14 +3170,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3174,14 +3186,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3191,14 +3203,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3224,14 +3236,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,14 +3269,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3273,14 +3285,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,14 +3302,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3313,7 +3325,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3323,14 +3335,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3339,14 +3351,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3356,14 +3368,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3379,7 +3391,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3389,14 +3401,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3422,11 +3434,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3455,14 +3467,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3471,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,14 +3500,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3504,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,31 +3549,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3570,31 +3582,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,31 +3615,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>222</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3636,31 +3648,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3676,24 +3688,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3709,24 +3721,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3735,31 +3747,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3768,31 +3780,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3801,31 +3813,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3834,31 +3846,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>116</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3867,31 +3879,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3907,24 +3919,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3933,31 +3945,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>153</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3966,31 +3978,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4006,59 +4018,125 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3945.835</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>249</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>250</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>215</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>111</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>160</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>251</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c t="s" r="Q87" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>252</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>156</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>111</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>245</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4168.835</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>253</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>254</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>255</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4467,10 +4545,20 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -770,7 +770,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 8:38 PM</t>
+    <t>Saturday, 21 June, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -218,10 +218,16 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>142.50</t>
   </si>
   <si>
-    <t>47.0250</t>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>DEXAFLOX EYE DROPS 5 ML</t>
@@ -272,9 +278,6 @@
     <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -320,7 +323,7 @@
     <t>54.00</t>
   </si>
   <si>
-    <t>17.8200</t>
+    <t>35.6400</t>
   </si>
   <si>
     <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
@@ -464,9 +467,6 @@
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
@@ -500,9 +500,6 @@
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -677,13 +674,16 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -695,9 +695,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -755,6 +752,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -770,7 +770,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 8:49 PM</t>
+    <t>Saturday, 21 June, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1906,7 +1906,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1916,14 +1916,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1949,11 +1949,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1998,14 +1998,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2048,11 +2048,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2081,11 +2081,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2097,14 +2097,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2114,11 +2114,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2147,11 +2147,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2196,14 +2196,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2213,11 +2213,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2262,14 +2262,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2279,14 +2279,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2345,11 +2345,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2374,15 +2374,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2394,14 +2394,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2411,11 +2411,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2427,14 +2427,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2444,11 +2444,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2460,14 +2460,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2477,11 +2477,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2543,11 +2543,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2576,11 +2576,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2609,11 +2609,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2642,11 +2642,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2675,11 +2675,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2691,28 +2691,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2741,11 +2741,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2774,11 +2774,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2790,14 +2790,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2807,11 +2807,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2823,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2962,7 +2962,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2972,11 +2972,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2988,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,11 +3005,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3038,11 +3038,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3071,14 +3071,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>151</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3104,11 +3104,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3133,15 +3133,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3170,11 +3170,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3203,11 +3203,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3236,11 +3236,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3269,11 +3269,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3302,11 +3302,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3335,11 +3335,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3368,11 +3368,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3417,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,11 +3434,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3467,11 +3467,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3483,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,11 +3500,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3533,11 +3533,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3549,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3566,11 +3566,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>37</v>
@@ -3582,14 +3582,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,11 +3599,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3615,28 +3615,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3648,28 +3648,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3694,18 +3694,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3727,18 +3727,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>37</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3760,18 +3760,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3780,28 +3780,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3813,28 +3813,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3846,28 +3846,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3879,31 +3879,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3912,31 +3912,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3945,28 +3945,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -3978,28 +3978,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4011,31 +4011,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4044,28 +4044,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4077,66 +4077,132 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4168.835</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>250</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>214</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>112</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>160</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>252</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>156</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>112</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>244</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4301.6800000000003</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
         <v>253</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
         <v>254</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
         <v>255</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4555,10 +4621,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -335,6 +335,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>357.0000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -770,7 +779,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 8:52 PM</t>
+    <t>Saturday, 21 June, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2335,7 +2344,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2368,21 +2377,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2394,20 +2403,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2418,7 +2427,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2467,7 +2476,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2477,7 +2486,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2500,7 +2509,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2543,14 +2552,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2566,7 +2575,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2576,14 +2585,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2592,14 +2601,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2609,11 +2618,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2625,7 +2634,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2642,7 +2651,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2665,7 +2674,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2698,24 +2707,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2724,20 +2733,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2748,7 +2757,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2797,7 +2806,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2830,7 +2839,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2847,7 +2856,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2863,7 +2872,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2906,11 +2915,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2946,7 +2955,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2962,7 +2971,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2972,11 +2981,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2988,14 +2997,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3021,14 +3030,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3078,7 +3087,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3094,7 +3103,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3111,7 +3120,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3127,13 +3136,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3160,13 +3169,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3193,7 +3202,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3210,7 +3219,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3276,7 +3285,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3292,7 +3301,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3302,14 +3311,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,14 +3327,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,14 +3344,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3368,11 +3377,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3384,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,11 +3410,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3417,14 +3426,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,14 +3443,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3457,7 +3466,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,14 +3509,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3556,7 +3565,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3566,14 +3575,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,14 +3608,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3615,28 +3624,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3648,28 +3657,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3681,31 +3690,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3727,18 +3736,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3747,7 +3756,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3760,18 +3769,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3780,7 +3789,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3793,18 +3802,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3813,28 +3822,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3853,21 +3862,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3879,20 +3888,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3919,24 +3928,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3945,31 +3954,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3985,21 +3994,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4011,31 +4020,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4044,31 +4053,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4077,28 +4086,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>51</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4110,20 +4119,20 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4131,7 +4140,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4143,66 +4152,99 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4301.6800000000003</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>253</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>254</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>255</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>159</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>115</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>247</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4658.6800000000003</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>256</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>257</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>258</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4631,10 +4673,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -779,7 +779,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 8:54 PM</t>
+    <t>Saturday, 21 June, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -779,7 +779,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:00 PM</t>
+    <t>Saturday, 21 June, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2476,7 +2476,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -3136,7 +3136,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -185,6 +185,18 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -194,6 +206,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>COBAL 500MCG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>COMFORT GEL 50 GM</t>
   </si>
   <si>
@@ -209,9 +230,6 @@
     <t>29:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>33.0000</t>
   </si>
   <si>
@@ -344,6 +362,15 @@
     <t>357.0000</t>
   </si>
   <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -779,7 +806,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:01 PM</t>
+    <t>Saturday, 21 June, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1816,7 +1843,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1826,11 +1853,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1842,7 +1869,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1859,11 +1886,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1875,14 +1902,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1899,7 +1926,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1915,7 +1942,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1925,14 +1952,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1958,11 +1985,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1974,14 +2001,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>78</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2014,7 +2041,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2024,7 +2051,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2064,7 +2091,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2080,7 +2107,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2090,7 +2117,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2113,7 +2140,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2146,7 +2173,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2163,7 +2190,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2179,7 +2206,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2189,14 +2216,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2205,14 +2232,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2222,11 +2249,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2238,14 +2265,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2255,7 +2282,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2278,7 +2305,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2295,7 +2322,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2311,7 +2338,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2344,7 +2371,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2361,7 +2388,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2377,7 +2404,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2410,21 +2437,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2436,14 +2463,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2453,11 +2480,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2469,14 +2496,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2486,14 +2513,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2502,31 +2529,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2542,7 +2569,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2552,14 +2579,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2568,14 +2595,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2585,11 +2612,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2618,14 +2645,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2634,14 +2661,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2651,11 +2678,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2667,14 +2694,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2684,14 +2711,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2700,7 +2727,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2717,11 +2744,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2733,31 +2760,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2766,14 +2793,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,11 +2810,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2799,14 +2826,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2816,11 +2843,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2832,20 +2859,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2856,7 +2883,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2872,7 +2899,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2889,7 +2916,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2905,7 +2932,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,11 +2942,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,11 +2975,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2964,14 +2991,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2981,11 +3008,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2997,14 +3024,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,14 +3041,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3030,14 +3057,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,11 +3074,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3063,7 +3090,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3080,14 +3107,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3096,14 +3123,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,14 +3140,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3129,14 +3156,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3153,7 +3180,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3169,13 +3196,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3186,7 +3213,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3202,7 +3229,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3219,7 +3246,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3235,7 +3262,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3252,7 +3279,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3268,13 +3295,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3285,7 +3312,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3301,7 +3328,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3334,7 +3361,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,14 +3371,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3360,14 +3387,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,11 +3404,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3393,14 +3420,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3410,14 +3437,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3426,7 +3453,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3443,14 +3470,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3459,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3476,14 +3503,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3492,14 +3519,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,11 +3536,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3525,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,14 +3569,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3585,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,11 +3602,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3591,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3608,14 +3635,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3624,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,14 +3668,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3657,31 +3684,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3690,31 +3717,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3730,24 +3757,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3756,31 +3783,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3789,31 +3816,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3822,7 +3849,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3835,18 +3862,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3855,31 +3882,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,31 +3915,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3928,13 +3955,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3942,7 +3969,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3954,31 +3981,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4000,7 +4027,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4008,7 +4035,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4020,28 +4047,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4053,31 +4080,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4086,28 +4113,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4119,28 +4146,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>86</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4152,31 +4179,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4185,66 +4212,165 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4658.6800000000003</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>260</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>261</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>124</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>169</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>262</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>226</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>124</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>172</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>264</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>168</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>124</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
         <v>256</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>257</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>258</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4693.9350000000004</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>265</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>266</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>267</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4678,10 +4804,25 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -806,7 +806,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:02 PM</t>
+    <t>Saturday, 21 June, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -362,6 +362,15 @@
     <t>357.0000</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>GOLDEN FER-F 30 CHEW. TABS.</t>
   </si>
   <si>
@@ -425,6 +434,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -704,9 +722,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -806,7 +821,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:09 PM</t>
+    <t>Saturday, 21 June, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2470,7 +2485,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2503,7 +2518,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2520,7 +2535,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2536,21 +2551,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2562,20 +2577,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2586,7 +2601,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2602,7 +2617,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2635,7 +2650,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2645,7 +2660,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2668,7 +2683,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2678,14 +2693,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2843,7 +2858,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2866,24 +2881,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,11 +2924,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2925,20 +2940,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2949,7 +2964,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2965,7 +2980,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2998,7 +3013,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3015,7 +3030,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3031,7 +3046,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3041,11 +3056,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,14 +3188,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3246,7 +3261,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3262,7 +3277,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3279,7 +3294,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3295,13 +3310,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3312,7 +3327,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3328,7 +3343,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3361,13 +3376,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3378,7 +3393,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3394,7 +3409,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3411,7 +3426,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3444,7 +3459,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3460,7 +3475,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3470,14 +3485,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3486,14 +3501,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,14 +3518,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,14 +3551,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,11 +3584,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3585,14 +3600,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,11 +3650,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,11 +3683,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3684,14 +3699,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,14 +3716,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,14 +3782,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,31 +3798,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,28 +3831,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3849,31 +3864,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>142</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3882,31 +3897,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>238</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3928,15 +3943,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3948,7 +3963,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3961,18 +3976,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3981,31 +3996,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4021,21 +4036,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4047,7 +4062,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4060,15 +4075,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4080,31 +4095,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4120,21 +4135,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4153,24 +4168,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4179,31 +4194,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4212,28 +4227,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4245,31 +4260,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4278,28 +4293,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4311,66 +4326,132 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4693.9350000000004</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>265</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>266</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>267</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>232</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>127</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>178</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>269</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>174</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>127</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>261</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4782.2950000000001</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>270</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>271</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>272</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4819,10 +4900,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -821,7 +821,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:11 PM</t>
+    <t>Saturday, 21 June, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -821,7 +821,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:13 PM</t>
+    <t>Saturday, 21 June, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -380,6 +380,15 @@
     <t>13.3650</t>
   </si>
   <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -434,6 +443,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -470,6 +488,12 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>NAVOPROXIN PLUS 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
     <t>ORCHAPRED 1% EYE DROPS (SUSP.) 10 ML</t>
   </si>
   <si>
@@ -644,6 +668,15 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -821,7 +854,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:15 PM</t>
+    <t>Saturday, 21 June, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2551,7 +2584,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2584,21 +2617,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2610,20 +2643,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2634,7 +2667,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2650,7 +2683,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2683,7 +2716,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2693,7 +2726,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2716,7 +2749,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2726,14 +2759,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2742,7 +2775,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2759,14 +2792,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2782,7 +2815,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2799,7 +2832,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2825,14 +2858,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2841,14 +2874,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2858,14 +2891,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2874,14 +2907,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2891,11 +2924,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2907,14 +2940,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,7 +2957,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2947,24 +2980,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2973,14 +3006,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,14 +3023,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3006,14 +3039,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3023,11 +3056,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3039,31 +3072,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,14 +3105,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3089,14 +3122,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3105,14 +3138,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,11 +3155,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3138,14 +3171,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3178,7 +3211,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3211,7 +3244,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,14 +3254,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3294,7 +3327,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3310,7 +3343,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,14 +3353,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3336,14 +3369,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3353,14 +3386,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3369,31 +3402,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3402,14 +3435,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3419,14 +3452,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3435,14 +3468,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,14 +3485,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3468,31 +3501,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3501,14 +3534,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,11 +3551,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3534,14 +3567,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,14 +3584,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3574,7 +3607,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3607,7 +3640,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,14 +3650,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3633,7 +3666,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3650,14 +3683,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3666,14 +3699,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3716,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3699,14 +3732,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,11 +3749,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3732,14 +3765,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3749,14 +3782,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3765,14 +3798,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,14 +3815,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3815,14 +3848,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3831,14 +3864,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3848,11 +3881,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3864,31 +3897,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,31 +3930,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3930,20 +3963,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3954,7 +3987,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3970,24 +4003,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>243</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3996,31 +4029,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4029,28 +4062,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4062,31 +4095,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4095,31 +4128,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4128,31 +4161,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4161,31 +4194,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>164</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4194,28 +4227,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4227,28 +4260,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4260,31 +4293,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>84</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,7 +4326,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4306,18 +4339,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4326,28 +4359,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4359,28 +4392,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4392,66 +4425,198 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4782.2950000000001</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>270</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>271</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>275</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>51</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>130</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>183</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>276</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>277</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>130</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>183</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>278</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>243</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>130</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>186</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>280</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>182</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>130</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
         <v>272</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4955.2950000000001</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>281</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>282</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>283</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4910,10 +5075,30 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -443,6 +443,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
@@ -464,9 +473,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -476,9 +482,6 @@
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -515,6 +518,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PENDULINE KIDS HAIR CREAM 150ML</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
     <t>PEOPO-OTIC EAR DROPS 15 ML</t>
   </si>
   <si>
@@ -719,9 +731,6 @@
     <t>VONASPIRE 20MG 14 F.C. TAB</t>
   </si>
   <si>
-    <t>104.00</t>
-  </si>
-  <si>
     <t>52.0000</t>
   </si>
   <si>
@@ -854,7 +863,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:16 PM</t>
+    <t>Saturday, 21 June, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2815,7 +2824,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2848,7 +2857,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2865,7 +2874,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2881,7 +2890,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2914,7 +2923,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2924,14 +2933,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2940,14 +2949,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2957,11 +2966,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2990,11 +2999,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3023,14 +3032,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3039,14 +3048,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3072,31 +3081,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3105,31 +3114,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3138,7 +3147,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3155,11 +3164,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3188,11 +3197,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3221,14 +3230,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3254,11 +3263,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3277,7 +3286,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3303,14 +3312,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3376,7 +3385,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3402,14 +3411,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3419,14 +3428,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3435,14 +3444,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3452,14 +3461,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3468,14 +3477,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3485,14 +3494,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,31 +3510,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3534,14 +3543,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3551,11 +3560,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3567,31 +3576,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3633,7 +3642,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3699,14 +3708,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3732,14 +3741,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,11 +3791,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3805,7 +3814,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3815,11 +3824,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3871,7 +3880,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3881,11 +3890,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3914,11 +3923,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3947,14 +3956,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3996,14 +4005,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4013,14 +4022,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4029,31 +4038,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4062,28 +4071,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4095,14 +4104,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4112,14 +4121,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4128,14 +4137,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4145,14 +4154,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>254</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4161,7 +4170,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4178,11 +4187,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4211,14 +4220,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4234,7 +4243,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4244,14 +4253,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4277,11 +4286,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4293,7 +4302,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4310,11 +4319,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4326,14 +4335,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>51</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4343,14 +4352,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4359,14 +4368,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4376,11 +4385,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4392,14 +4401,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4425,14 +4434,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4442,14 +4451,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4475,11 +4484,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4508,14 +4517,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4531,7 +4540,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4541,11 +4550,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4557,14 +4566,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4574,49 +4583,115 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>281</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>246</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>130</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>190</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>283</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>186</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>130</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>275</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>141</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4955.2950000000001</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>281</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>282</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>283</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5098.2950000000001</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>284</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>285</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>286</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5095,10 +5170,20 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>10.8900</t>
   </si>
   <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>COMFORT GEL 50 GM</t>
   </si>
   <si>
@@ -248,6 +257,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DEXAFLOX EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -557,12 +578,6 @@
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -782,7 +797,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -863,7 +878,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:18 PM</t>
+    <t>Saturday, 21 June, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1999,7 +2014,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2016,7 +2031,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2032,7 +2047,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2042,7 +2057,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -2075,14 +2090,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2091,14 +2106,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2108,14 +2123,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2131,7 +2146,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2141,14 +2156,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2157,14 +2172,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2174,11 +2189,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2190,7 +2205,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2207,14 +2222,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2223,14 +2238,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2240,11 +2255,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2256,14 +2271,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2273,11 +2288,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2289,14 +2304,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2306,14 +2321,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2322,14 +2337,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2339,14 +2354,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2355,14 +2370,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2372,11 +2387,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2388,14 +2403,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2405,11 +2420,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2421,14 +2436,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2438,14 +2453,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2454,14 +2469,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2471,11 +2486,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2487,14 +2502,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2504,14 +2519,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2520,14 +2535,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2537,14 +2552,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2553,14 +2568,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2570,14 +2585,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2586,14 +2601,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2603,14 +2618,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2619,14 +2634,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2636,14 +2651,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2652,7 +2667,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2665,7 +2680,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2692,7 +2707,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2709,7 +2724,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2731,18 +2746,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2751,14 +2766,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2768,11 +2783,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2784,7 +2799,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2801,14 +2816,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2817,14 +2832,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2834,14 +2849,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2850,14 +2865,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2867,11 +2882,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2883,14 +2898,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2900,14 +2915,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2916,14 +2931,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2933,14 +2948,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2949,7 +2964,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2966,14 +2981,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2982,14 +2997,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2999,14 +3014,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3015,14 +3030,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3032,11 +3047,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3048,14 +3063,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3065,14 +3080,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3081,14 +3096,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3098,11 +3113,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3114,28 +3129,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3154,7 +3169,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3187,24 +3202,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3213,7 +3228,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3230,11 +3245,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3246,14 +3261,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3263,11 +3278,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3279,14 +3294,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3296,14 +3311,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3312,14 +3327,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3329,11 +3344,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3345,14 +3360,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3362,14 +3377,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3385,7 +3400,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3395,14 +3410,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3411,14 +3426,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3428,14 +3443,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3444,14 +3459,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3468,7 +3483,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3484,7 +3499,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3494,14 +3509,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3510,14 +3525,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3527,14 +3542,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3543,14 +3558,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3560,14 +3575,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3576,31 +3591,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,11 +3641,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3642,31 +3657,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3675,14 +3690,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3692,14 +3707,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3708,7 +3723,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3725,14 +3740,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3741,14 +3756,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3758,14 +3773,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3781,7 +3796,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3798,7 +3813,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3814,7 +3829,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3824,14 +3839,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3840,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3857,11 +3872,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3873,14 +3888,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3890,11 +3905,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3906,14 +3921,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3923,14 +3938,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3939,14 +3954,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,11 +3971,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3972,14 +3987,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3989,7 +4004,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4012,7 +4027,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4022,14 +4037,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4055,14 +4070,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4071,14 +4086,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,14 +4103,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4104,31 +4119,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4137,28 +4152,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4170,31 +4185,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4203,31 +4218,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>257</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4249,15 +4264,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4269,7 +4284,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4282,18 +4297,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4302,31 +4317,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4342,21 +4357,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4368,7 +4383,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4381,15 +4396,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4401,31 +4416,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4441,21 +4456,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>141</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4474,24 +4489,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4500,31 +4515,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4533,28 +4548,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4566,31 +4581,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4599,28 +4614,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>246</v>
+        <v>51</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4632,66 +4647,132 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>186</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>192</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5098.2950000000001</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>284</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>285</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>286</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>251</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>137</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>195</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>288</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>191</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>137</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>280</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5140.0649999999996</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>289</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>290</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>291</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5180,10 +5261,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -107,258 +107,258 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>77.2200</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>COBAL 500MCG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>COMFORT GEL 50 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ESTIKAN 20MG 14 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>GANTOLIEF 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>12.3750</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>BRUFEN 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE 500MG 10 TAB</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>COBAL 500MCG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>COMFORT GEL 50 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAFLOX EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DIASTOP SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ESTIKAN 20MG 14 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>GANTOLIEF 50MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>37.50</t>
-  </si>
-  <si>
-    <t>12.3750</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -797,7 +797,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -878,7 +878,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:19 PM</t>
+    <t>Saturday, 21 June, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1717,7 +1717,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1727,11 +1727,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1760,11 +1760,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1776,14 +1776,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1797,10 +1797,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1809,14 +1809,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1826,11 +1826,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1842,14 +1842,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1859,11 +1859,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1875,14 +1875,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1892,11 +1892,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1908,14 +1908,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1925,11 +1925,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1941,14 +1941,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1958,11 +1958,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1991,11 +1991,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2024,11 +2024,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2040,14 +2040,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2057,11 +2057,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2073,14 +2073,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2090,11 +2090,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2106,14 +2106,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2123,14 +2123,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2139,14 +2139,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2156,11 +2156,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2189,11 +2189,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2238,14 +2238,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2255,11 +2255,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2288,11 +2288,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2321,11 +2321,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2337,14 +2337,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2354,11 +2354,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2387,11 +2387,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2436,14 +2436,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2453,11 +2453,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2486,11 +2486,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2502,14 +2502,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2526,7 +2526,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2542,7 +2542,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2575,7 +2575,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2707,7 +2707,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2773,7 +2773,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2905,7 +2905,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2938,7 +2938,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3004,7 +3004,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3070,7 +3070,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3103,7 +3103,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3235,7 +3235,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3268,7 +3268,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3301,7 +3301,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3367,7 +3367,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3377,11 +3377,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3466,7 +3466,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3499,7 +3499,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3565,7 +3565,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3598,7 +3598,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3615,7 +3615,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3631,7 +3631,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3664,7 +3664,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3730,7 +3730,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3763,7 +3763,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3796,7 +3796,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3862,7 +3862,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,11 +3938,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3971,11 +3971,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4027,7 +4027,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4143,7 +4143,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4258,7 +4258,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4291,7 +4291,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>262</v>
@@ -4324,7 +4324,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4357,7 +4357,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4390,7 +4390,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4456,7 +4456,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4489,7 +4489,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4555,7 +4555,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4588,7 +4588,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4602,10 +4602,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4621,7 +4621,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="105" ht="24.75" customHeight="1">
       <c r="P105" s="13">
-        <v>5140.0649999999996</v>
+        <v>5169.8050000000003</v>
       </c>
       <c r="Q105" s="13"/>
     </row>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -410,6 +410,21 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -422,9 +437,6 @@
     <t>HYDRO-SAFE SALTE 10SACHTS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -584,9 +596,6 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -596,9 +605,6 @@
     <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>21.4500</t>
   </si>
   <si>
@@ -872,13 +878,10 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:22 PM</t>
+    <t>Saturday, 21 June, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2707,21 +2710,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2733,28 +2736,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2766,31 +2769,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2799,14 +2802,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2816,11 +2819,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2832,14 +2835,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2849,11 +2852,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2865,14 +2868,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2882,14 +2885,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2898,14 +2901,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2915,11 +2918,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2931,14 +2934,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2948,11 +2951,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2964,14 +2967,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2981,14 +2984,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2997,14 +3000,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3014,11 +3017,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3030,14 +3033,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3047,14 +3050,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3063,14 +3066,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3080,11 +3083,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3096,7 +3099,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3113,11 +3116,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3129,14 +3132,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3146,14 +3149,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3162,14 +3165,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3179,14 +3182,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3195,20 +3198,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3219,7 +3222,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3235,24 +3238,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3261,7 +3264,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3278,11 +3281,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3294,7 +3297,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3311,11 +3314,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3327,14 +3330,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3344,11 +3347,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3360,14 +3363,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3377,14 +3380,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3393,14 +3396,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,14 +3413,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3426,14 +3429,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3443,11 +3446,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3466,7 +3469,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3483,7 +3486,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3499,7 +3502,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3509,11 +3512,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3525,14 +3528,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3542,14 +3545,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3558,14 +3561,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3575,11 +3578,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3591,7 +3594,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3608,14 +3611,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3624,14 +3627,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3641,14 +3644,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3657,28 +3660,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3690,28 +3693,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3723,14 +3726,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,14 +3743,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3756,7 +3759,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3773,11 +3776,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3789,7 +3792,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3806,14 +3809,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3822,14 +3825,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3839,14 +3842,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3862,7 +3865,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,14 +3875,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3888,14 +3891,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3905,11 +3908,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3921,7 +3924,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3938,11 +3941,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>89</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3954,14 +3957,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3971,11 +3974,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3987,14 +3990,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,14 +4007,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4020,14 +4023,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4037,14 +4040,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4053,14 +4056,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4070,14 +4073,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4086,14 +4089,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4103,7 +4106,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4126,7 +4129,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4136,14 +4139,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4152,14 +4155,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4169,14 +4172,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4185,28 +4188,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4218,28 +4221,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4251,31 +4254,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4284,7 +4287,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4297,18 +4300,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>262</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4330,18 +4333,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4350,7 +4353,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4363,18 +4366,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4390,13 +4393,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4404,7 +4407,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4416,28 +4419,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4449,28 +4452,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4482,31 +4485,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4522,24 +4525,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>148</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4548,28 +4551,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4581,31 +4584,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4614,31 +4617,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4647,28 +4650,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4687,13 +4690,13 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4701,7 +4704,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4720,59 +4723,92 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5169.8050000000003</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>289</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>134</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>135</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>282</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5234.8050000000003</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
         <v>290</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
         <v>291</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>292</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5271,10 +5307,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -881,7 +881,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:27 PM</t>
+    <t>Saturday, 21 June, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -749,6 +749,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>VONASPIRE 20MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -797,18 +806,18 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>9.0000</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -881,7 +890,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:31 PM</t>
+    <t>Saturday, 21 June, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4129,7 +4138,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4172,14 +4181,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4188,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4205,14 +4214,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4221,24 +4230,24 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4261,7 +4270,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4271,11 +4280,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4304,14 +4313,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4337,14 +4346,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>264</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4370,14 +4379,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4386,7 +4395,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4403,14 +4412,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4436,11 +4445,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4459,7 +4468,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>32</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4469,11 +4478,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4485,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4525,7 +4534,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4535,14 +4544,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4551,14 +4560,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>152</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4591,7 +4600,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>92</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4601,7 +4610,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4617,14 +4626,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4634,14 +4643,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4667,14 +4676,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4683,14 +4692,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4716,14 +4725,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4733,11 +4742,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4749,14 +4758,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4766,49 +4775,82 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>136</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>292</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>134</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>135</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>285</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>152</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5234.8050000000003</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>290</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>291</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>292</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c t="s" r="Q106" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5306.8050000000003</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>293</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>294</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>295</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5312,10 +5354,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -239,6 +239,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CYCLOFLEX 5 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -335,6 +344,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>FELDENE 20MG 10 DISP. TAB</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>42.5000</t>
+  </si>
+  <si>
     <t>GANTOLIEF 50MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -437,12 +455,6 @@
     <t>HYDRO-SAFE SALTE 10SACHTS</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>ICANDRA 50 MG 30 TAB.</t>
   </si>
   <si>
@@ -890,7 +902,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:33 PM</t>
+    <t>Saturday, 21 June, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2125,7 +2137,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2135,14 +2147,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2151,14 +2163,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2168,14 +2180,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2184,14 +2196,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2208,7 +2220,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2257,7 +2269,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,7 +2279,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2290,7 +2302,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2300,14 +2312,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2323,7 +2335,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2340,7 +2352,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2356,7 +2368,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2373,7 +2385,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2389,7 +2401,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2422,7 +2434,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2465,14 +2477,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2488,7 +2500,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2521,7 +2533,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,14 +2543,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2564,11 +2576,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2580,14 +2592,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2604,7 +2616,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2620,7 +2632,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2637,7 +2649,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2653,7 +2665,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2670,7 +2682,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2686,7 +2698,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2703,7 +2715,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2719,24 +2731,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2745,14 +2757,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2762,11 +2774,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2778,20 +2790,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2818,7 +2830,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2835,7 +2847,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2857,18 +2869,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2894,11 +2906,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2910,7 +2922,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2927,14 +2939,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2960,14 +2972,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2976,14 +2988,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2993,11 +3005,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3026,14 +3038,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3042,14 +3054,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3059,14 +3071,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3075,7 +3087,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3092,14 +3104,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3108,14 +3120,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,14 +3137,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,11 +3170,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3181,7 +3193,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,14 +3203,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,11 +3236,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3240,28 +3252,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3273,14 +3285,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,11 +3302,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3306,31 +3318,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3339,7 +3351,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3356,11 +3368,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3372,14 +3384,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3389,11 +3401,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3405,14 +3417,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,14 +3434,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3445,7 +3457,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,11 +3467,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3471,14 +3483,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,14 +3500,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3511,7 +3523,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,14 +3533,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3537,14 +3549,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,14 +3566,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,14 +3582,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,14 +3599,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3603,14 +3615,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,14 +3632,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,14 +3648,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,14 +3665,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3669,14 +3681,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3698,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,31 +3714,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,14 +3747,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,11 +3764,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3768,31 +3780,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3801,14 +3813,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,14 +3830,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,7 +3846,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3851,14 +3863,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3867,14 +3879,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3896,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,14 +3912,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,14 +3929,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3933,14 +3945,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,14 +3962,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,14 +3978,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,11 +3995,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4006,7 +4018,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,11 +4028,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>51</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4032,14 +4044,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,14 +4061,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4072,7 +4084,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,11 +4094,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4115,11 +4127,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4131,14 +4143,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,11 +4160,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4164,14 +4176,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,11 +4193,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4197,14 +4209,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,14 +4226,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,14 +4242,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4247,14 +4259,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4263,31 +4275,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4296,7 +4308,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4309,15 +4321,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4336,24 +4348,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>201</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,31 +4374,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>266</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4408,18 +4420,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4441,18 +4453,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4468,24 +4480,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4494,28 +4506,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4527,7 +4539,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4540,15 +4552,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4560,31 +4572,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,28 +4605,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>32</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4626,31 +4638,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>152</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4666,24 +4678,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4692,28 +4704,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4725,31 +4737,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4758,28 +4770,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4791,66 +4803,132 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5306.8050000000003</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>293</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>294</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>295</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>260</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>141</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>142</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>296</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>140</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>141</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>289</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5389.3050000000003</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>297</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>298</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>299</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5359,10 +5437,20 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -239,6 +239,18 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>CYCLOFLEX 5 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -593,9 +605,6 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>42.0000</t>
   </si>
   <si>
@@ -632,9 +641,6 @@
     <t>21.00</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -803,9 +809,6 @@
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -902,7 +905,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:44 PM</t>
+    <t>Saturday, 21 June, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2137,7 +2140,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2147,14 +2150,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2163,14 +2166,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2187,7 +2190,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2196,14 +2199,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2213,14 +2216,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2236,7 +2239,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2246,14 +2249,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2262,7 +2265,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2279,11 +2282,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2295,14 +2298,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2312,11 +2315,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2328,14 +2331,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2345,14 +2348,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2361,14 +2364,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2378,14 +2381,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2394,14 +2397,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2411,14 +2414,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2427,14 +2430,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2444,11 +2447,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2460,14 +2463,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2477,14 +2480,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2493,14 +2496,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2510,11 +2513,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2526,14 +2529,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2543,14 +2546,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2559,14 +2562,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2576,14 +2579,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2592,14 +2595,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2616,7 +2619,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2632,7 +2635,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2642,14 +2645,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2658,14 +2661,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2675,11 +2678,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2691,14 +2694,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2708,14 +2711,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2724,14 +2727,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2741,11 +2744,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2757,14 +2760,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2774,14 +2777,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2790,28 +2793,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2823,28 +2826,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2856,28 +2859,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2889,31 +2892,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2922,14 +2925,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2939,11 +2942,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2955,14 +2958,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2972,11 +2975,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2988,14 +2991,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3005,14 +3008,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3021,14 +3024,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3038,11 +3041,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3054,14 +3057,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3071,11 +3074,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3104,14 +3107,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3120,14 +3123,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3137,11 +3140,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3153,14 +3156,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3170,14 +3173,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3186,14 +3189,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3203,11 +3206,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3219,7 +3222,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3236,11 +3239,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3252,14 +3255,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3269,14 +3272,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3285,14 +3288,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3302,14 +3305,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3318,20 +3321,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3342,7 +3345,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3358,24 +3361,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3384,7 +3387,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3401,11 +3404,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3417,7 +3420,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3434,11 +3437,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3467,11 +3470,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3516,14 +3519,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3533,14 +3536,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3549,14 +3552,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3566,11 +3569,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3589,7 +3592,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3599,14 +3602,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3615,14 +3618,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3632,11 +3635,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3648,14 +3651,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3665,14 +3668,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3681,14 +3684,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3702,7 +3705,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3714,7 +3717,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3764,14 +3767,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3780,28 +3783,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3813,28 +3816,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3879,7 +3882,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3896,11 +3899,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3912,7 +3915,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3929,14 +3932,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3945,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3962,14 +3965,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3985,7 +3988,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,14 +3998,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4011,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4028,11 +4031,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4044,7 +4047,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4077,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,11 +4097,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,14 +4130,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,14 +4163,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,14 +4229,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4282,7 +4285,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4292,14 +4295,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4325,14 +4328,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4341,28 +4344,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4374,28 +4377,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4414,24 +4417,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>205</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4440,7 +4443,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4453,18 +4456,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>270</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4473,7 +4476,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4486,18 +4489,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4506,7 +4509,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4519,18 +4522,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,28 +4542,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4572,28 +4575,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4605,28 +4608,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4638,31 +4641,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4671,31 +4674,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4704,28 +4707,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4744,24 +4747,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4777,24 +4780,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4810,21 +4813,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>50</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4836,28 +4839,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4876,59 +4879,92 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5389.3050000000003</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>297</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>144</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>145</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>290</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5410.3050000000003</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
         <v>298</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
         <v>299</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>300</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5447,10 +5483,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -161,588 +161,594 @@
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>COBAL 500MCG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>COMFORT GEL 50 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>CYCLOFLEX 5 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ESTIKAN 20MG 14 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG 10 DISP. TAB</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>42.5000</t>
+  </si>
+  <si>
+    <t>GANTOLIEF 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>12.3750</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>357.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HYDRO-SAFE SALTE 10SACHTS</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>91.50</t>
+  </si>
+  <si>
+    <t>30.1950</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NACTALIA 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>NAVOPROXIN PLUS 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>ORCHAPRED 1% EYE DROPS (SUSP.) 10 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PENDULINE KIDS HAIR CREAM 150ML</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>PEOPO-OTIC EAR DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>PRIDOCAINE TOPICAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
+  </si>
+  <si>
+    <t>21.4500</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>226.5900</t>
+  </si>
+  <si>
+    <t>TAMSUL 0.4MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
+    <t>TINIFLOXACIN 10 TAB.</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM XR 750MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>23.00</t>
+    <t>VIOTIC EAR DROPS 10 ML</t>
   </si>
   <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE 500MG 10 TAB</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>COBAL 500MCG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>COMFORT GEL 50 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>CYCLOFLEX 5 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAFLOX EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DIASTOP SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ESTIKAN 20MG 14 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG 10 DISP. TAB</t>
-  </si>
-  <si>
-    <t>42.50</t>
-  </si>
-  <si>
-    <t>42.5000</t>
-  </si>
-  <si>
-    <t>GANTOLIEF 50MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>37.50</t>
-  </si>
-  <si>
-    <t>12.3750</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>357.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t>13.3650</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>HYDRO-SAFE SALTE 10SACHTS</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>39.1050</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>91.50</t>
-  </si>
-  <si>
-    <t>30.1950</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NACTALIA 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>NAVOPROXIN PLUS 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>ORCHAPRED 1% EYE DROPS (SUSP.) 10 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PENDULINE KIDS HAIR CREAM 150ML</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>PEOPO-OTIC EAR DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>PRIDOCAINE TOPICAL CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
-  </si>
-  <si>
-    <t>21.4500</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>226.5900</t>
-  </si>
-  <si>
-    <t>TAMSUL 0.4MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>17.0950</t>
-  </si>
-  <si>
-    <t>TINIFLOXACIN 10 TAB.</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>TIRATAM XR 750MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>148.0000</t>
-  </si>
-  <si>
-    <t>TOPRO 10 SACHETS</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>VENTOCOUGH SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -905,7 +911,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:45 PM</t>
+    <t>Saturday, 21 June, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1893,7 +1899,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -3691,7 +3697,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3701,7 +3707,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3717,7 +3723,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3734,11 +3740,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3750,7 +3756,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3767,11 +3773,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>84</v>
@@ -3783,7 +3789,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3800,11 +3806,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3816,7 +3822,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3833,11 +3839,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3849,7 +3855,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3866,11 +3872,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3882,7 +3888,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3899,11 +3905,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3915,7 +3921,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3932,11 +3938,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3948,7 +3954,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3965,11 +3971,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3981,7 +3987,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4002,7 +4008,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4014,7 +4020,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4031,11 +4037,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4047,7 +4053,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4064,11 +4070,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4080,7 +4086,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,11 +4136,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4153,7 +4159,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4163,14 +4169,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4179,14 +4185,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,14 +4202,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,14 +4235,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4262,14 +4268,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4278,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,14 +4301,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4318,7 +4324,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4344,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4361,14 +4367,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,24 +4383,24 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4427,11 +4433,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4460,14 +4466,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>208</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4493,14 +4499,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>271</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>273</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4559,14 +4565,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4582,7 +4588,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4596,7 +4602,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4625,11 +4631,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>32</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4658,11 +4664,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4674,14 +4680,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4691,14 +4697,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4714,7 +4720,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4724,14 +4730,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>160</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4740,14 +4746,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>99</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4757,7 +4763,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4790,14 +4796,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4823,14 +4829,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4879,7 +4885,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4889,11 +4895,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4922,49 +4928,82 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>290</v>
+        <v>146</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>299</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>144</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>145</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>292</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>160</v>
       </c>
-      <c t="s" r="Q109" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5410.3050000000003</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>298</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>299</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c t="s" r="Q110" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5459.3050000000003</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
         <v>300</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>301</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>302</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5488,10 +5527,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -356,6 +356,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>FEDESAFOROL DROP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>44.90</t>
+  </si>
+  <si>
+    <t>44.9000</t>
+  </si>
+  <si>
     <t>FELDENE 20MG 10 DISP. TAB</t>
   </si>
   <si>
@@ -440,15 +452,21 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -776,12 +794,6 @@
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>VONASPIRE 20MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -911,7 +923,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:48 PM</t>
+    <t>Saturday, 21 June, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2548,15 +2560,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2568,14 +2580,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2585,14 +2597,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2601,14 +2613,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2618,14 +2630,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2634,14 +2646,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2658,7 +2670,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2674,7 +2686,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2684,14 +2696,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2700,14 +2712,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2717,11 +2729,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2750,14 +2762,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2783,11 +2795,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2816,14 +2828,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2832,28 +2844,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2865,28 +2877,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2898,28 +2910,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2931,14 +2943,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2948,14 +2960,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2964,7 +2976,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2977,18 +2989,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3004,7 +3016,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3014,7 +3026,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3047,14 +3059,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3063,14 +3075,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3080,14 +3092,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3096,14 +3108,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3113,7 +3125,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3136,7 +3148,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3153,7 +3165,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3169,7 +3181,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3179,14 +3191,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3195,7 +3207,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3228,14 +3240,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3278,11 +3290,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3311,14 +3323,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3344,11 +3356,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3360,20 +3372,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3381,7 +3393,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3393,14 +3405,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,11 +3422,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3426,20 +3438,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3450,7 +3462,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3499,7 +3511,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3509,11 +3521,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,14 +3554,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3575,11 +3587,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3591,14 +3603,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3608,14 +3620,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3624,14 +3636,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3641,14 +3653,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,14 +3686,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,14 +3719,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3723,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,14 +3752,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,14 +3785,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3796,7 +3808,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3813,7 +3825,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3829,13 +3841,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3846,7 +3858,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3862,7 +3874,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3895,13 +3907,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3912,7 +3924,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3928,7 +3940,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3945,7 +3957,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3978,7 +3990,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3994,7 +4006,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4004,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4020,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,14 +4049,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4053,14 +4065,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4070,14 +4082,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4093,7 +4105,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4103,11 +4115,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4119,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,11 +4148,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4152,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4169,11 +4181,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4185,14 +4197,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,14 +4214,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,11 +4247,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4251,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,11 +4280,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4284,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,11 +4313,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4317,14 +4329,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4334,11 +4346,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4350,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4367,14 +4379,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4383,14 +4395,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,14 +4412,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4416,31 +4428,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,28 +4461,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4482,31 +4494,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>176</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4515,31 +4527,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>273</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4561,18 +4573,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4594,18 +4606,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4621,24 +4633,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4647,28 +4659,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4680,7 +4692,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4693,15 +4705,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4713,31 +4725,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4746,28 +4758,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>32</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>160</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4779,31 +4791,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>160</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4819,24 +4831,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4845,28 +4857,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4878,31 +4890,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4911,28 +4923,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -4944,66 +4956,132 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5459.3050000000003</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>300</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>301</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>302</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>268</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>116</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>152</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>303</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>151</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>116</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>296</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5570.2049999999999</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>304</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>305</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>306</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5532,10 +5610,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -536,6 +536,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -593,6 +602,12 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PANGESTAZOL 40MG 14 TABS.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PENDULINE KIDS HAIR CREAM 150ML</t>
   </si>
   <si>
@@ -794,6 +809,9 @@
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
   </si>
   <si>
+    <t>87.7800</t>
+  </si>
+  <si>
     <t>VONASPIRE 20MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -923,7 +941,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:55 PM</t>
+    <t>Saturday, 21 June, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3214,7 +3232,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3247,7 +3265,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,11 +3275,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3273,14 +3291,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3290,14 +3308,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3306,14 +3324,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3323,11 +3341,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3339,7 +3357,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3356,11 +3374,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3379,7 +3397,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3393,10 +3411,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3422,14 +3440,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3445,24 +3463,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3471,20 +3489,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3495,7 +3513,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3511,7 +3529,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3521,14 +3539,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3537,7 +3555,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3554,11 +3572,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,7 +3605,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3610,7 +3628,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3636,14 +3654,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3653,11 +3671,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3686,14 +3704,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,14 +3720,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3742,7 +3760,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3752,14 +3770,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3768,14 +3786,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,14 +3803,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3801,14 +3819,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3818,14 +3836,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3841,7 +3859,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3855,10 +3873,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3867,14 +3885,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3884,14 +3902,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3900,31 +3918,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,11 +3968,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3966,31 +3984,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4034,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,7 +4050,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4049,14 +4067,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,14 +4100,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4105,7 +4123,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4122,7 +4140,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4138,7 +4156,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,14 +4166,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,11 +4199,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4197,14 +4215,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,11 +4232,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4230,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,11 +4265,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4263,14 +4281,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,14 +4298,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4303,7 +4321,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,11 +4331,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4329,14 +4347,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,7 +4364,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4369,7 +4387,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,11 +4397,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4402,7 +4420,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,11 +4430,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4428,14 +4446,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,14 +4463,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4468,7 +4486,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,14 +4496,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,31 +4512,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4534,21 +4552,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4560,14 +4578,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4577,14 +4595,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,14 +4611,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4610,14 +4628,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>277</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,7 +4644,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4643,14 +4661,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,7 +4677,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4676,14 +4694,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,14 +4710,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4709,14 +4727,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4725,14 +4743,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4746,7 +4764,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4758,7 +4776,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4775,11 +4793,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4791,14 +4809,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4808,14 +4826,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>201</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,14 +4842,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4845,7 +4863,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>166</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4857,14 +4875,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>99</v>
+        <v>254</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,14 +4892,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4890,14 +4908,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4907,14 +4925,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4923,14 +4941,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,11 +4958,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -4956,14 +4974,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,14 +4991,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4989,14 +5007,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5006,11 +5024,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5022,14 +5040,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5039,49 +5057,115 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>308</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>274</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>116</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>152</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>309</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>151</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>116</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>302</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>166</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5570.2049999999999</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>304</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>305</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>306</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c t="s" r="Q114" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5706.8400000000001</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>310</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>311</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>312</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5620,10 +5704,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -797,13 +797,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>4:1</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
@@ -860,7 +860,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -941,7 +941,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 9:58 PM</t>
+    <t>Saturday, 21 June, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4437,7 +4437,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>248</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>283</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1">
       <c r="P115" s="13">
-        <v>5706.8400000000001</v>
+        <v>5725.6700000000001</v>
       </c>
       <c r="Q115" s="13"/>
     </row>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -275,6 +284,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DELTACLAV 457MG/5ML PD. FOR ORAL 80ML SUSP.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -821,60 +839,63 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8645:0</t>
+    <t>8643:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>4.0000</t>
   </si>
   <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>بيرسول حشرات طائره</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
     <t>سلاكه ازن خشب صغيره</t>
   </si>
   <si>
@@ -941,7 +962,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:07 PM</t>
+    <t>Saturday, 21 June, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1747,7 +1768,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1757,14 +1778,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1773,14 +1794,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1790,14 +1811,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1813,7 +1834,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1830,7 +1851,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1846,7 +1867,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1856,14 +1877,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1879,7 +1900,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1889,14 +1910,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1905,14 +1926,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1922,14 +1943,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1938,14 +1959,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1955,14 +1976,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1971,14 +1992,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1988,11 +2009,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -2004,14 +2025,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2044,7 +2065,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2061,7 +2082,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2077,7 +2098,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2110,7 +2131,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2127,7 +2148,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2143,7 +2164,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2153,7 +2174,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2186,14 +2207,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2202,14 +2223,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2226,7 +2247,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2242,7 +2263,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2252,14 +2273,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2268,14 +2289,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2285,14 +2306,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2301,7 +2322,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2318,11 +2339,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2334,14 +2355,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2358,7 +2379,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2374,7 +2395,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2384,7 +2405,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2424,7 +2445,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2440,7 +2461,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2450,7 +2471,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2473,7 +2494,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2506,7 +2527,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2523,7 +2544,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2539,7 +2560,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2549,14 +2570,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2565,20 +2586,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2589,7 +2610,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2605,7 +2626,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2615,11 +2636,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2631,20 +2652,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2655,7 +2676,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2671,7 +2692,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2704,7 +2725,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2714,14 +2735,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2730,14 +2751,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2747,11 +2768,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2763,14 +2784,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2787,7 +2808,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2803,7 +2824,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2820,7 +2841,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2836,7 +2857,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2853,7 +2874,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2869,7 +2890,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2886,7 +2907,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2902,13 +2923,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2919,7 +2940,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2935,21 +2956,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2961,28 +2982,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2994,28 +3015,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3027,14 +3048,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3044,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3060,7 +3081,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3073,18 +3094,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3100,7 +3121,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3110,7 +3131,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3143,14 +3164,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3159,14 +3180,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3176,14 +3197,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3192,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3209,7 +3230,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3232,7 +3253,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3249,7 +3270,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3265,7 +3286,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3282,7 +3303,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3298,7 +3319,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3308,11 +3329,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3324,7 +3345,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3341,14 +3362,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3357,14 +3378,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3374,14 +3395,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3390,14 +3411,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3407,11 +3428,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3423,14 +3444,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3440,14 +3461,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3456,14 +3477,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3473,11 +3494,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3489,20 +3510,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3510,7 +3531,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3522,14 +3543,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3539,14 +3560,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3562,24 +3583,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3588,14 +3609,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3605,14 +3626,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3628,7 +3649,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3661,7 +3682,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3671,11 +3692,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3687,14 +3708,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3704,14 +3725,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3720,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3737,11 +3758,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3753,14 +3774,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3770,14 +3791,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3786,14 +3807,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3803,14 +3824,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3819,14 +3840,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3836,14 +3857,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3852,14 +3873,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3869,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3885,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3902,14 +3923,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3918,14 +3939,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3935,14 +3956,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3958,7 +3979,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3975,7 +3996,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3991,13 +4012,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4008,7 +4029,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4024,7 +4045,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4057,13 +4078,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4074,7 +4095,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4090,7 +4111,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4107,7 +4128,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4123,7 +4144,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4140,7 +4161,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4156,7 +4177,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,14 +4187,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4182,14 +4203,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4215,14 +4236,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,14 +4253,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4255,7 +4276,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,11 +4286,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4281,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4298,11 +4319,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4314,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,11 +4352,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4347,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,14 +4385,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4380,14 +4401,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4397,11 +4418,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4413,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4430,14 +4451,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4446,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4463,14 +4484,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4486,7 +4507,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4496,14 +4517,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4512,14 +4533,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>47</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4529,14 +4550,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4552,7 +4573,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4562,14 +4583,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4578,31 +4599,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4611,28 +4632,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>187</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4644,31 +4665,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4677,31 +4698,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>283</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4710,31 +4731,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4743,31 +4764,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4776,31 +4797,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4809,20 +4830,20 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4849,13 +4870,13 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4882,24 +4903,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4908,28 +4929,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>166</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4941,31 +4962,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4974,31 +4995,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5007,28 +5028,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>254</v>
+        <v>105</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5040,31 +5061,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>47</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5073,28 +5094,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5106,66 +5127,132 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>151</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5725.6700000000001</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>310</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>311</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>312</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>315</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>279</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>122</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>158</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>316</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>157</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>122</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>309</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5849.6700000000001</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>317</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>318</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>319</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5714,10 +5801,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:10 PM</t>
+    <t>Saturday, 21 June, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -743,6 +743,12 @@
     <t>148.0000</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
@@ -797,9 +803,6 @@
     <t>VIOTIC EAR DROPS 10 ML</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -962,7 +965,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:14 PM</t>
+    <t>Saturday, 21 June, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4177,7 +4180,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,11 +4190,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4203,7 +4206,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4220,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4236,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4276,7 +4279,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4302,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,11 +4322,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4335,7 +4338,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4352,11 +4355,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4368,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,11 +4388,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4408,7 +4411,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,11 +4421,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4441,7 +4444,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,14 +4454,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4467,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,14 +4487,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4507,7 +4510,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4533,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4599,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4616,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>279</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4632,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4649,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4665,28 +4668,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4698,7 +4701,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4715,11 +4718,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4738,7 +4741,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4748,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>192</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,7 +4767,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4781,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>289</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,7 +4800,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4814,14 +4817,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4830,7 +4833,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4847,14 +4850,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4880,11 +4883,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4896,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4913,11 +4916,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4929,14 +4932,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4946,11 +4949,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4962,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,14 +4982,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4995,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,14 +5015,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>212</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5028,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>105</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,7 +5048,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5068,7 +5071,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5078,14 +5081,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5101,7 +5104,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,14 +5114,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5134,7 +5137,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5160,14 +5163,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5177,11 +5180,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5200,7 +5203,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5210,49 +5213,82 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>158</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>317</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>157</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>122</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>310</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
         <v>172</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5849.6700000000001</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>317</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c t="s" r="Q117" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>5872.6700000000001</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
         <v>318</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
         <v>319</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>320</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5811,10 +5847,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ATROZEMB 20/10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -152,9 +164,6 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>BRUFEN 200MG 30 TAB</t>
   </si>
   <si>
@@ -512,6 +521,15 @@
     <t>39.1050</t>
   </si>
   <si>
+    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -623,7 +641,13 @@
     <t>PANGESTAZOL 40MG 14 TABS.</t>
   </si>
   <si>
-    <t>51.0000</t>
+    <t>PAROXEDEP CR 25 MG 30F.C.TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
   </si>
   <si>
     <t>PENDULINE KIDS HAIR CREAM 150ML</t>
@@ -644,6 +668,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
     <t>PRIDOCAINE TOPICAL CREAM 30 GM</t>
   </si>
   <si>
@@ -821,9 +854,6 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -965,7 +995,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:21 PM</t>
+    <t>Saturday, 21 June, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1870,7 +1900,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1880,11 +1910,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1896,14 +1926,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1913,14 +1943,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1929,14 +1959,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1946,14 +1976,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1962,14 +1992,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1979,14 +2009,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1995,14 +2025,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2012,14 +2042,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2028,14 +2058,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2045,11 +2075,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -2061,14 +2091,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2101,7 +2131,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2118,7 +2148,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2134,7 +2164,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2167,7 +2197,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2184,7 +2214,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2200,7 +2230,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2210,7 +2240,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2243,14 +2273,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2259,14 +2289,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2283,7 +2313,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2299,7 +2329,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2309,14 +2339,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2325,14 +2355,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2342,14 +2372,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2365,7 +2395,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2375,14 +2405,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2391,14 +2421,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2415,7 +2445,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2464,7 +2494,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2474,7 +2504,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2497,7 +2527,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2507,14 +2537,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2530,7 +2560,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2547,7 +2577,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2563,7 +2593,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2580,7 +2610,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2596,7 +2626,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2629,7 +2659,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2639,14 +2669,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2655,28 +2685,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2688,20 +2718,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2728,7 +2758,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2745,7 +2775,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2761,7 +2791,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2778,7 +2808,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2794,7 +2824,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2804,14 +2834,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2820,14 +2850,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2844,7 +2874,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2860,7 +2890,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2893,7 +2923,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2910,7 +2940,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2926,7 +2956,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2959,7 +2989,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2976,7 +3006,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2992,13 +3022,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3025,21 +3055,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3051,20 +3081,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3091,21 +3121,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3117,31 +3147,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3157,7 +3187,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3190,7 +3220,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3200,14 +3230,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3233,14 +3263,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3249,14 +3279,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3266,14 +3296,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3282,14 +3312,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3299,7 +3329,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3322,7 +3352,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3339,7 +3369,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3355,7 +3385,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3372,7 +3402,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3388,7 +3418,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3398,11 +3428,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3414,7 +3444,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3431,14 +3461,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3447,14 +3477,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3464,14 +3494,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3480,14 +3510,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3497,11 +3527,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3513,14 +3543,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3530,14 +3560,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3546,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3563,11 +3593,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3579,20 +3609,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3600,7 +3630,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3612,14 +3642,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,14 +3659,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3652,24 +3682,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3678,14 +3708,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,14 +3725,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3711,14 +3741,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3728,14 +3758,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,14 +3774,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,7 +3791,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3784,7 +3814,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,14 +3824,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3810,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,14 +3857,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3843,14 +3873,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3860,11 +3890,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3876,14 +3906,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,14 +3923,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3909,14 +3939,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,11 +3956,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3942,14 +3972,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,11 +3989,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3975,14 +4005,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,11 +4022,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4008,14 +4038,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4025,14 +4055,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,7 +4071,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4058,11 +4088,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4081,13 +4111,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4095,10 +4125,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4107,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4140,14 +4170,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4173,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,14 +4220,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4213,13 +4243,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4230,7 +4260,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4246,7 +4276,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4279,7 +4309,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,14 +4319,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4305,14 +4335,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,7 +4352,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>57</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4345,7 +4375,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4378,7 +4408,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,14 +4418,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4404,14 +4434,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4451,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4437,14 +4467,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,11 +4484,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4470,14 +4500,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,14 +4517,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4503,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,11 +4550,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4536,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,14 +4583,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4569,14 +4599,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,14 +4616,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4602,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,11 +4649,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4635,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>280</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4668,7 +4698,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4685,14 +4715,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,31 +4731,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4734,31 +4764,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,20 +4797,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>47</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4788,10 +4818,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>53</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,31 +4830,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>290</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,31 +4863,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>191</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,28 +4896,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4899,31 +4929,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4939,24 +4969,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>43</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,31 +4995,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4998,31 +5028,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>262</v>
+        <v>43</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,28 +5061,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>35</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5064,28 +5094,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>172</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5097,31 +5127,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5130,31 +5160,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5163,28 +5193,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5196,28 +5226,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>280</v>
+        <v>108</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>158</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5229,66 +5259,198 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>5872.6700000000001</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>318</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>319</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>323</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>273</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>125</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>230</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>324</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>325</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>125</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>230</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>326</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>290</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>125</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>161</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>327</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>160</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>125</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
         <v>320</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6053.1199999999999</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>328</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>329</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>330</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5852,10 +6014,30 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
     <t>BRUFEN 200MG 30 TAB</t>
   </si>
   <si>
@@ -386,9 +398,6 @@
     <t>FEDESAFOROL DROP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>44.90</t>
   </si>
   <si>
@@ -995,7 +1004,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:24 PM</t>
+    <t>Saturday, 21 June, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1999,13 +2008,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -2016,7 +2025,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2049,7 +2058,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2082,7 +2091,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2131,7 +2140,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2141,11 +2150,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2174,14 +2183,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2190,14 +2199,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2207,11 +2216,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2223,14 +2232,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2273,11 +2282,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2306,14 +2315,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2329,7 +2338,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2355,14 +2364,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2379,7 +2388,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2388,14 +2397,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2412,7 +2421,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2445,7 +2454,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2461,7 +2470,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2471,14 +2480,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2487,7 +2496,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2504,11 +2513,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2537,11 +2546,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2553,14 +2562,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2570,14 +2579,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2586,14 +2595,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2603,14 +2612,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2619,14 +2628,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2636,14 +2645,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2652,14 +2661,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2669,11 +2678,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2718,24 +2727,24 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2764,7 +2773,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2791,7 +2800,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2808,7 +2817,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2824,7 +2833,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2841,7 +2850,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2857,7 +2866,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2883,14 +2892,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2907,7 +2916,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2923,7 +2932,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2956,7 +2965,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2973,7 +2982,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2989,7 +2998,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3022,7 +3031,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3039,7 +3048,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3055,13 +3064,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3088,21 +3097,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3114,20 +3123,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3154,21 +3163,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3180,31 +3189,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3220,7 +3229,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3237,7 +3246,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3270,7 +3279,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3286,7 +3295,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3296,7 +3305,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3319,7 +3328,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3329,14 +3338,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3362,7 +3371,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3385,7 +3394,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3418,7 +3427,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3435,7 +3444,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3451,7 +3460,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3484,7 +3493,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,11 +3503,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3527,14 +3536,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3560,11 +3569,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3576,7 +3585,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3593,11 +3602,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3616,7 +3625,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3630,10 +3639,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3682,24 +3691,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3708,28 +3717,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3741,14 +3750,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3781,7 +3790,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3798,7 +3807,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3847,7 +3856,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3864,7 +3873,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3880,7 +3889,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3897,7 +3906,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3913,7 +3922,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,11 +3932,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,11 +4031,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4045,7 +4054,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4055,14 +4064,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4071,14 +4080,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,11 +4097,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4154,11 +4163,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4194,7 +4203,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4210,7 +4219,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4227,7 +4236,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4243,13 +4252,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4276,13 +4285,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4309,7 +4318,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4326,7 +4335,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4342,7 +4351,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4352,11 +4361,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4368,14 +4377,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4385,7 +4394,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4425,7 +4434,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4441,7 +4450,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,14 +4460,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4507,7 +4516,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,11 +4559,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>106</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4566,14 +4575,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4583,11 +4592,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,11 +4625,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4632,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,14 +4658,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>238</v>
+        <v>61</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4672,7 +4681,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4738,7 +4747,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4757,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,14 +4823,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>290</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4830,7 +4839,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4847,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q104" s="12">
         <v>293</v>
-      </c>
-      <c t="s" r="Q104" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4870,21 +4879,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4896,28 +4905,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4929,31 +4938,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>201</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,7 +4971,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4975,18 +4984,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,7 +5004,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5008,18 +5017,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5028,7 +5037,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5041,18 +5050,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5068,13 +5077,13 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5101,21 +5110,21 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5127,20 +5136,20 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>35</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5167,24 +5176,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>223</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5193,31 +5202,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>178</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5233,21 +5242,21 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>108</v>
+        <v>322</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5259,31 +5268,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5292,31 +5301,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>273</v>
+        <v>43</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5325,28 +5334,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5358,28 +5367,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5391,66 +5400,99 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>160</v>
+        <v>293</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>320</v>
+        <v>164</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6053.1199999999999</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>328</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>329</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>330</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>163</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>52</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>323</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6083.6199999999999</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>331</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>332</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>333</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6034,10 +6076,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -395,6 +395,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>FEDESAFOROL DROP</t>
   </si>
   <si>
@@ -635,6 +644,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -707,6 +725,15 @@
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
+    <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
@@ -935,9 +962,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سلاكه ازن خشب صغيره</t>
   </si>
   <si>
@@ -1004,7 +1028,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:25 PM</t>
+    <t>Saturday, 21 June, 2025 10:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2767,13 +2791,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2784,7 +2808,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2806,7 +2830,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2833,7 +2857,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2850,7 +2874,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2866,7 +2890,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2883,7 +2907,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2899,7 +2923,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2909,14 +2933,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2925,14 +2949,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2949,7 +2973,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2965,7 +2989,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2998,7 +3022,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3015,7 +3039,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3031,7 +3055,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3064,7 +3088,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3081,7 +3105,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3097,13 +3121,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3130,7 +3154,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3140,11 +3164,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3156,20 +3180,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3196,21 +3220,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3222,31 +3246,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3262,7 +3286,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3279,7 +3303,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3312,7 +3336,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3328,7 +3352,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3338,7 +3362,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3361,7 +3385,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3371,14 +3395,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,7 +3428,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3427,7 +3451,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3460,7 +3484,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3477,7 +3501,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3493,7 +3517,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3526,7 +3550,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3536,11 +3560,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3552,14 +3576,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,14 +3593,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3585,14 +3609,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3602,11 +3626,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3618,7 +3642,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3635,11 +3659,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3658,7 +3682,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3672,10 +3696,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3684,14 +3708,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3701,14 +3725,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3724,24 +3748,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3750,14 +3774,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,11 +3791,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3783,28 +3807,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3816,14 +3840,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3833,14 +3857,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3856,7 +3880,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3873,7 +3897,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3889,7 +3913,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3906,7 +3930,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3955,7 +3979,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3965,14 +3989,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3981,14 +4005,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,14 +4022,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4014,14 +4038,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4031,11 +4055,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4047,14 +4071,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,14 +4088,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4080,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4097,14 +4121,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,14 +4137,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4154,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,14 +4170,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,11 +4187,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4179,7 +4203,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4196,14 +4220,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,14 +4236,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,14 +4253,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4245,14 +4269,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,14 +4286,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4285,13 +4309,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4302,7 +4326,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4318,7 +4342,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4335,7 +4359,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4351,7 +4375,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4368,7 +4392,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4384,24 +4408,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,14 +4434,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,14 +4451,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4443,7 +4467,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4460,14 +4484,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,14 +4500,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,14 +4517,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4509,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,11 +4550,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4542,14 +4566,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,14 +4583,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,14 +4599,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,14 +4616,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4608,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>56</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,11 +4649,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4641,14 +4665,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,11 +4682,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4674,14 +4698,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,14 +4715,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4707,14 +4731,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,11 +4748,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4740,14 +4764,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,14 +4781,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4773,14 +4797,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4814,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,14 +4830,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,14 +4847,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,14 +4863,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4880,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>293</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4879,7 +4903,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,14 +4913,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>163</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4905,31 +4929,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,31 +4962,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>87</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,31 +4995,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>43</v>
+        <v>302</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>181</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,14 +5028,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5045,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>110</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>303</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,14 +5061,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,14 +5078,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5070,7 +5094,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5087,14 +5111,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,14 +5127,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,14 +5144,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,14 +5160,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,14 +5177,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5169,14 +5193,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5210,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5202,14 +5226,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>276</v>
+        <v>35</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,14 +5243,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>226</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5235,14 +5259,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,11 +5276,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>181</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5275,7 +5299,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,11 +5309,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5301,14 +5325,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5342,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>110</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5334,14 +5358,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,11 +5375,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5367,14 +5391,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>112</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,11 +5408,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5400,14 +5424,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,14 +5441,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>164</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5433,14 +5457,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>163</v>
+        <v>285</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5450,49 +5474,148 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6083.6199999999999</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>335</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>336</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>52</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>242</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>337</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>302</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>52</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>167</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>338</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>166</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>52</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
         <v>331</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>332</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>333</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6391.6199999999999</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>339</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>340</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>341</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6081,10 +6204,25 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
   </si>
   <si>
@@ -86,12 +98,6 @@
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -179,9 +185,6 @@
     <t>BRUFEN 200MG 30 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -1028,7 +1031,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:42 PM</t>
+    <t>Saturday, 21 June, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1735,7 +1738,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1745,11 +1748,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1761,14 +1764,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1778,11 +1781,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1794,14 +1797,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1811,14 +1814,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1827,14 +1830,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1844,11 +1847,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1860,14 +1863,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1877,14 +1880,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1893,14 +1896,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1910,14 +1913,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1926,14 +1929,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1943,14 +1946,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1959,14 +1962,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1976,11 +1979,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1992,14 +1995,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2009,14 +2012,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2032,24 +2035,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2058,31 +2061,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2091,14 +2094,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2108,14 +2111,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2124,14 +2127,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2141,14 +2144,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2157,14 +2160,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2174,11 +2177,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2190,14 +2193,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2207,11 +2210,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2223,14 +2226,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2240,14 +2243,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2256,14 +2259,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2273,11 +2276,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2289,14 +2292,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2306,14 +2309,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2322,14 +2325,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2339,11 +2342,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2355,14 +2358,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2372,14 +2375,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2388,14 +2391,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2405,14 +2408,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2421,14 +2424,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2438,14 +2441,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2454,14 +2457,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2471,14 +2474,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2487,14 +2490,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2504,14 +2507,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2520,14 +2523,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2537,14 +2540,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2553,7 +2556,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2570,11 +2573,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2586,14 +2589,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2603,11 +2606,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2619,14 +2622,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2636,14 +2639,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2652,14 +2655,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2669,14 +2672,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2685,14 +2688,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2702,14 +2705,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2718,14 +2721,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2735,11 +2738,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2751,14 +2754,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2768,14 +2771,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2784,14 +2787,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2801,14 +2804,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2817,31 +2820,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2850,28 +2853,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2883,14 +2886,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2900,14 +2903,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2916,14 +2919,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2933,14 +2936,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2949,14 +2952,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2966,14 +2969,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2982,14 +2985,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2999,14 +3002,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3015,14 +3018,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3032,11 +3035,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3048,14 +3051,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3065,14 +3068,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3081,14 +3084,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3098,11 +3101,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3114,14 +3117,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3131,14 +3134,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3147,28 +3150,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3180,28 +3183,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3213,28 +3216,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3246,28 +3249,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3286,24 +3289,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3312,14 +3315,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3329,14 +3332,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3345,7 +3348,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3362,14 +3365,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3378,14 +3381,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3395,11 +3398,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3411,14 +3414,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3428,14 +3431,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3444,14 +3447,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3461,11 +3464,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3477,14 +3480,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3494,11 +3497,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3510,14 +3513,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3527,14 +3530,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3543,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3560,11 +3563,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3576,14 +3579,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3593,11 +3596,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3609,14 +3612,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3626,14 +3629,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3649,7 +3652,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3659,11 +3662,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3682,7 +3685,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3692,11 +3695,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3708,14 +3711,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3725,14 +3728,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3741,14 +3744,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3758,14 +3761,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3774,14 +3777,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3791,14 +3794,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3807,28 +3810,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>92</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3840,28 +3843,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3880,7 +3883,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3890,11 +3893,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3906,14 +3909,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3923,14 +3926,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3939,14 +3942,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3956,11 +3959,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3972,14 +3975,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3989,14 +3992,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4005,14 +4008,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4022,14 +4025,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4038,14 +4041,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4055,11 +4058,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4071,14 +4074,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,14 +4091,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4111,7 +4114,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4121,14 +4124,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4144,7 +4147,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4154,11 +4157,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4170,14 +4173,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4187,11 +4190,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4203,14 +4206,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4220,14 +4223,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4236,14 +4239,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4253,11 +4256,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4276,7 +4279,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4286,14 +4289,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4302,14 +4305,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4319,11 +4322,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4335,14 +4338,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4368,14 +4371,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4385,14 +4388,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4401,28 +4404,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4434,28 +4437,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4467,14 +4470,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4484,14 +4487,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4500,14 +4503,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4517,11 +4520,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>61</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4533,14 +4536,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,11 +4553,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4566,14 +4569,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4583,14 +4586,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4599,14 +4602,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,14 +4619,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4632,14 +4635,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,14 +4652,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4665,14 +4668,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4682,11 +4685,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4698,7 +4701,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4715,11 +4718,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4738,7 +4741,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4748,11 +4751,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4764,14 +4767,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4781,11 +4784,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4804,7 +4807,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4814,14 +4817,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4830,14 +4833,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>35</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4847,14 +4850,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4870,7 +4873,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4880,14 +4883,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4896,14 +4899,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>43</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4913,14 +4916,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4929,14 +4932,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4946,14 +4949,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4962,14 +4965,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,14 +4982,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>302</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4995,14 +4998,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5012,14 +5015,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5028,28 +5031,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5061,28 +5064,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>205</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5101,24 +5104,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>205</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5127,31 +5130,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>312</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5160,31 +5163,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5193,31 +5196,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5226,28 +5229,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5259,28 +5262,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5292,28 +5295,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>35</v>
+        <v>322</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5325,31 +5328,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>285</v>
+        <v>37</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5358,31 +5361,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>184</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5391,28 +5394,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>112</v>
+        <v>331</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5431,24 +5434,24 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5464,24 +5467,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5497,21 +5500,21 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5523,28 +5526,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5563,59 +5566,92 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>166</v>
+        <v>303</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>331</v>
+        <v>168</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6391.6199999999999</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>339</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>167</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>54</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>332</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6420.3299999999999</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
         <v>340</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
         <v>341</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>342</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6219,10 +6255,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -266,10 +266,10 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>33.0000</t>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>66.0000</t>
   </si>
   <si>
     <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
@@ -356,6 +356,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -506,9 +515,6 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
@@ -584,6 +590,12 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
@@ -788,6 +800,12 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>TEMPO COOL</t>
   </si>
   <si>
@@ -1031,7 +1049,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:43 PM</t>
+    <t>Saturday, 21 June, 2025 10:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2382,7 +2400,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2662,7 +2680,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2679,7 +2697,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2695,7 +2713,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2712,7 +2730,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2728,7 +2746,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2745,7 +2763,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2761,7 +2779,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2794,7 +2812,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2837,14 +2855,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2860,13 +2878,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2877,7 +2895,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2899,7 +2917,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2926,7 +2944,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2943,7 +2961,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2959,7 +2977,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2976,7 +2994,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2992,7 +3010,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3002,14 +3020,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3042,7 +3060,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3058,7 +3076,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3091,7 +3109,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3108,7 +3126,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3124,7 +3142,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3157,7 +3175,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3174,7 +3192,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3190,13 +3208,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3223,7 +3241,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3233,11 +3251,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3249,28 +3267,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3282,28 +3300,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3315,31 +3333,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3365,14 +3383,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3381,7 +3399,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3398,14 +3416,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3414,14 +3432,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3431,11 +3449,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3487,7 +3505,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3497,11 +3515,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3513,14 +3531,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3530,11 +3548,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3563,11 +3581,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3579,14 +3597,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3629,11 +3647,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3645,7 +3663,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3662,14 +3680,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3695,14 +3713,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3728,11 +3746,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3751,7 +3769,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3761,14 +3779,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3794,11 +3812,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3810,14 +3828,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3827,11 +3845,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3843,31 +3861,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3893,11 +3911,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3909,20 +3927,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3949,7 +3967,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3959,14 +3977,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3975,14 +3993,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3992,14 +4010,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4008,14 +4026,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4025,14 +4043,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4041,7 +4059,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4058,11 +4076,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4074,14 +4092,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4091,14 +4109,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>89</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4107,14 +4125,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4124,14 +4142,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4157,11 +4175,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4173,14 +4191,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4190,14 +4208,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4213,7 +4231,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4223,11 +4241,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4239,7 +4257,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4256,14 +4274,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4289,14 +4307,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4305,14 +4323,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4322,14 +4340,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4338,14 +4356,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4355,14 +4373,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4388,14 +4406,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4404,14 +4422,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4421,14 +4439,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4437,31 +4455,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4470,14 +4488,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4487,11 +4505,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4503,14 +4521,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4520,14 +4538,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4536,31 +4554,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4569,14 +4587,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4586,14 +4604,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4602,7 +4620,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4619,14 +4637,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4635,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4652,14 +4670,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4668,14 +4686,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4685,11 +4703,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4701,14 +4719,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4718,14 +4736,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4734,14 +4752,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4751,14 +4769,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4767,14 +4785,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4784,11 +4802,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4807,7 +4825,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4817,11 +4835,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4833,14 +4851,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4850,14 +4868,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4873,7 +4891,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4883,11 +4901,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4899,14 +4917,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4916,14 +4934,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4932,14 +4950,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4949,14 +4967,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4972,7 +4990,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4982,14 +5000,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4998,14 +5016,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5015,14 +5033,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>303</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5031,14 +5049,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5048,14 +5066,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5064,31 +5082,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5097,31 +5115,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>206</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5137,13 +5155,13 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5151,10 +5169,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5163,14 +5181,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5180,14 +5198,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>111</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>313</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5196,14 +5214,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5213,14 +5231,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5250,10 +5268,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5269,7 +5287,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5279,14 +5297,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5295,14 +5313,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5312,14 +5330,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5328,14 +5346,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5345,11 +5363,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5361,14 +5379,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5378,14 +5396,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5394,14 +5412,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5411,11 +5429,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>185</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5427,14 +5445,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5448,7 +5466,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5467,7 +5485,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5477,14 +5495,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>237</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5493,14 +5511,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5510,11 +5528,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>243</v>
+        <v>338</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5526,14 +5544,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>337</v>
+        <v>113</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5543,11 +5561,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>243</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5559,14 +5577,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5576,14 +5594,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>168</v>
+        <v>338</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5592,14 +5610,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5609,49 +5627,148 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6420.3299999999999</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>340</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>341</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>342</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>343</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>54</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>247</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>344</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>309</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>54</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>170</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>345</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>169</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>54</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>338</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6607.3299999999999</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>346</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>347</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>348</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6260,10 +6377,25 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -308,6 +308,12 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
     <t>DELTACLAV 457MG/5ML PD. FOR ORAL 80ML SUSP.</t>
   </si>
   <si>
@@ -338,6 +344,12 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -908,10 +920,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>33.6600</t>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
@@ -938,9 +953,6 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -968,13 +980,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -989,9 +1004,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>شامبو كلير 1 كيس</t>
   </si>
   <si>
@@ -1049,7 +1061,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:45 PM</t>
+    <t>Saturday, 21 June, 2025 10:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2515,7 +2527,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2525,14 +2537,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2541,14 +2553,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2558,14 +2570,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2574,14 +2586,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2591,14 +2603,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2607,7 +2619,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2624,11 +2636,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2690,11 +2702,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2723,14 +2735,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2756,11 +2768,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2772,14 +2784,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2789,11 +2801,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2871,14 +2883,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2888,11 +2900,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2904,28 +2916,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2937,14 +2949,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2954,14 +2966,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2970,31 +2982,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3020,11 +3032,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3086,11 +3098,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3119,14 +3131,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3152,14 +3164,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3185,14 +3197,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3234,31 +3246,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3267,28 +3279,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3300,28 +3312,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3333,14 +3345,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3350,11 +3362,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3373,7 +3385,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3390,7 +3402,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3412,15 +3424,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3432,14 +3444,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3449,11 +3461,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3482,14 +3494,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3498,7 +3510,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3515,14 +3527,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3531,14 +3543,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3548,14 +3560,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3564,7 +3576,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3581,14 +3593,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3597,14 +3609,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3614,11 +3626,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3630,14 +3642,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3647,11 +3659,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3663,14 +3675,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3680,14 +3692,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3696,14 +3708,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3713,11 +3725,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3729,7 +3741,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3746,14 +3758,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3762,14 +3774,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3779,14 +3791,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3795,14 +3807,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3812,11 +3824,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3835,7 +3847,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3845,14 +3857,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3861,14 +3873,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3878,11 +3890,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3894,14 +3906,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3911,11 +3923,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3927,31 +3939,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3960,14 +3972,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3977,11 +3989,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3993,20 +4005,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -4033,7 +4045,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4043,14 +4055,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4059,14 +4071,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4076,14 +4088,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4092,14 +4104,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4109,14 +4121,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4125,7 +4137,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4142,11 +4154,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4158,14 +4170,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4175,14 +4187,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4191,14 +4203,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4208,14 +4220,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4224,14 +4236,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4241,11 +4253,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>19</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4257,14 +4269,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4274,14 +4286,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4297,7 +4309,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,11 +4319,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4323,7 +4335,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4340,14 +4352,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4356,14 +4368,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,14 +4385,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4389,14 +4401,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4406,14 +4418,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4422,14 +4434,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4439,14 +4451,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4455,14 +4467,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4472,14 +4484,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4488,14 +4500,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4505,14 +4517,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4521,14 +4533,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4538,14 +4550,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4554,28 +4566,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4587,7 +4599,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4604,11 +4616,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4620,31 +4632,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4653,14 +4665,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4682,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>62</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4686,7 +4698,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4703,11 +4715,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4719,14 +4731,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4736,14 +4748,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4752,14 +4764,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,14 +4781,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4785,14 +4797,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4802,14 +4814,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4818,14 +4830,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,14 +4847,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4851,14 +4863,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4868,11 +4880,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>111</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4891,7 +4903,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4901,11 +4913,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4917,14 +4929,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4934,11 +4946,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>275</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4950,14 +4962,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4967,14 +4979,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4990,7 +5002,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5000,11 +5012,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -5033,14 +5045,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5056,7 +5068,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5066,14 +5078,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5082,14 +5094,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5099,14 +5111,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5115,14 +5127,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5132,14 +5144,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>171</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>309</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5148,14 +5160,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5165,14 +5177,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5181,31 +5193,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>88</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,28 +5226,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>209</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5247,14 +5259,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5264,14 +5276,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>206</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>187</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5280,14 +5292,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5297,14 +5309,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>319</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5330,14 +5342,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5363,14 +5375,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5379,14 +5391,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5396,14 +5408,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>303</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5419,7 +5431,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5429,11 +5441,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5445,7 +5457,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5462,11 +5474,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5478,14 +5490,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5495,14 +5507,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5511,14 +5523,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5528,11 +5540,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5544,14 +5556,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5561,14 +5573,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>338</v>
+        <v>241</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>187</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5584,7 +5596,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5594,14 +5606,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5610,14 +5622,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5627,11 +5639,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>247</v>
+        <v>342</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5643,14 +5655,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>343</v>
+        <v>45</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5660,14 +5672,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>247</v>
+        <v>342</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5676,14 +5688,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5693,11 +5705,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5709,14 +5721,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>169</v>
+        <v>347</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5726,49 +5738,115 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>338</v>
+        <v>251</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6607.3299999999999</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>346</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>347</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>348</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>303</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>54</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>174</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>349</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>173</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>54</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>342</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>6652.9200000000001</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>350</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>351</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>352</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6392,10 +6470,20 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -428,6 +428,18 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEDESAFOROL DROP</t>
   </si>
   <si>
@@ -764,9 +776,6 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -1061,7 +1070,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:46 PM</t>
+    <t>Saturday, 21 June, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2989,24 +2998,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3015,7 +3024,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3028,15 +3037,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3098,14 +3107,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3114,14 +3123,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3138,7 +3147,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3154,7 +3163,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3164,14 +3173,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3197,11 +3206,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3230,14 +3239,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3263,11 +3272,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3279,14 +3288,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3296,14 +3305,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3312,28 +3321,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3362,11 +3371,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3385,21 +3394,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3411,28 +3420,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3444,31 +3453,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3510,7 +3519,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3527,14 +3536,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3560,11 +3569,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3626,11 +3635,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3741,14 +3750,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3791,11 +3800,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3873,7 +3882,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3890,11 +3899,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3923,14 +3932,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4005,24 +4014,24 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -4045,21 +4054,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4071,14 +4080,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4088,11 +4097,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4137,7 +4146,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4154,11 +4163,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4187,14 +4196,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4220,14 +4229,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4253,11 +4262,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4319,14 +4328,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4352,11 +4361,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4368,14 +4377,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4385,11 +4394,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4451,11 +4460,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4517,11 +4526,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4557,7 +4566,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4573,7 +4582,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4590,7 +4599,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4606,7 +4615,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4616,11 +4625,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4632,24 +4641,24 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4672,13 +4681,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4705,7 +4714,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4722,7 +4731,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4738,7 +4747,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4748,11 +4757,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>62</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4781,7 +4790,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4821,7 +4830,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4837,7 +4846,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4847,14 +4856,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4863,14 +4872,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4880,14 +4889,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>199</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4903,7 +4912,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4946,11 +4955,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>115</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4979,11 +4988,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5012,11 +5021,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -5028,14 +5037,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5045,14 +5054,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5068,7 +5077,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5078,14 +5087,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5094,14 +5103,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5111,14 +5120,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>305</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5127,14 +5136,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5144,14 +5153,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>30</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5160,14 +5169,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5177,14 +5186,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5193,14 +5202,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,14 +5219,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>303</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5226,14 +5235,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5250,7 +5259,7 @@
         <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5266,21 +5275,21 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>206</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5292,7 +5301,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5309,11 +5318,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5325,14 +5334,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5342,14 +5351,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5358,7 +5367,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5375,14 +5384,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>324</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5408,14 +5417,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5424,7 +5433,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5441,14 +5450,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5457,14 +5466,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5474,11 +5483,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5490,14 +5499,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>332</v>
+        <v>37</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5511,7 +5520,7 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5523,14 +5532,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>37</v>
+        <v>335</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5563,7 +5572,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5573,14 +5582,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>241</v>
+        <v>339</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5589,14 +5598,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5606,14 +5615,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>342</v>
+        <v>245</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>191</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5629,7 +5638,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>117</v>
+        <v>344</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5639,11 +5648,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5655,14 +5664,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5672,14 +5681,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5688,14 +5697,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5705,14 +5714,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>251</v>
+        <v>345</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5721,14 +5730,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5738,11 +5747,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>251</v>
+        <v>141</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>20</v>
@@ -5754,14 +5763,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5771,11 +5780,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>20</v>
@@ -5787,14 +5796,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>173</v>
+        <v>306</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5804,49 +5813,82 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>6652.9200000000001</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>350</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
-        <v>351</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>352</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>177</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>54</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>345</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>6656.7600000000002</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>353</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>354</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>355</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6480,10 +6522,15 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -122,21 +122,21 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>89.7000</t>
+  </si>
+  <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>77.2200</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -752,6 +752,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -917,9 +926,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>0:5</t>
-  </si>
-  <si>
     <t>14.4000</t>
   </si>
   <si>
@@ -989,30 +995,27 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب صغيره</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سلاكه ازن خشب صغيره</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
     <t>شامبو كلير 1 كيس</t>
   </si>
   <si>
@@ -1070,7 +1073,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:50 PM</t>
+    <t>Saturday, 21 June, 2025 10:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1959,7 +1962,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1968,14 +1971,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2074,7 +2077,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2190,7 +2193,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2421,7 +2424,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -3427,7 +3430,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3658,7 +3661,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3889,7 +3892,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3922,7 +3925,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4285,7 +4288,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4295,14 +4298,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4311,14 +4314,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4328,14 +4331,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4344,14 +4347,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4361,14 +4364,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4377,14 +4380,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4394,11 +4397,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4417,7 +4420,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4427,11 +4430,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4443,14 +4446,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4460,14 +4463,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4476,14 +4479,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4493,11 +4496,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4509,14 +4512,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4526,14 +4529,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4542,14 +4545,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4559,11 +4562,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4599,7 +4602,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4615,7 +4618,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4632,7 +4635,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4648,7 +4651,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4658,11 +4661,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4674,24 +4677,24 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4714,13 +4717,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4747,7 +4750,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4764,7 +4767,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4780,7 +4783,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4790,11 +4793,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>62</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4806,14 +4809,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4823,7 +4826,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4863,7 +4866,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4879,7 +4882,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4889,14 +4892,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4905,14 +4908,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4922,14 +4925,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4945,7 +4948,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4988,11 +4991,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>114</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -5004,14 +5007,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5021,11 +5024,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -5037,14 +5040,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5054,11 +5057,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5070,14 +5073,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5087,14 +5090,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5110,7 +5113,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5120,14 +5123,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5136,14 +5139,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5153,14 +5156,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>308</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5169,14 +5172,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5186,14 +5189,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>310</v>
-      </c>
-      <c t="s" r="Q112" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5209,7 +5212,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5219,14 +5222,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5242,7 +5245,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5252,14 +5255,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>306</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5268,14 +5271,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5285,14 +5288,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5301,24 +5304,24 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>88</v>
+        <v>308</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
@@ -5351,11 +5354,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5367,14 +5370,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5384,14 +5387,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5417,14 +5420,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>327</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5433,7 +5436,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5450,14 +5453,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>306</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5466,7 +5469,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5483,14 +5486,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5499,14 +5502,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5516,11 +5519,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>329</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5532,14 +5535,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5549,11 +5552,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5565,14 +5568,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>37</v>
+        <v>336</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5582,11 +5585,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5598,14 +5601,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5615,14 +5618,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5631,14 +5634,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5648,14 +5651,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>195</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5664,14 +5667,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>117</v>
+        <v>345</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5681,7 +5684,7 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
@@ -5704,7 +5707,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5714,14 +5717,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5737,7 +5740,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5747,14 +5750,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>141</v>
+        <v>346</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5770,7 +5773,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5784,7 +5787,7 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>20</v>
@@ -5796,14 +5799,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5813,11 +5816,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
@@ -5836,7 +5839,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5846,49 +5849,82 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>345</v>
+        <v>178</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>353</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>177</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>54</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>346</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
         <v>195</v>
       </c>
-      <c t="s" r="Q132" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>6656.7600000000002</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>353</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c t="s" r="Q133" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>6806.2399999999998</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
         <v>354</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
         <v>355</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>356</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6527,10 +6563,15 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -641,12 +650,6 @@
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -1073,7 +1076,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 10:58 PM</t>
+    <t>Saturday, 21 June, 2025 11:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2407,7 +2410,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2417,14 +2420,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2450,14 +2453,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2466,14 +2469,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2490,7 +2493,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2506,7 +2509,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2516,14 +2519,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2532,14 +2535,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2549,14 +2552,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2565,14 +2568,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2582,14 +2585,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2605,7 +2608,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2615,14 +2618,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2631,14 +2634,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2655,7 +2658,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2671,7 +2674,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2681,14 +2684,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2697,14 +2700,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2714,14 +2717,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2737,7 +2740,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2747,7 +2750,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2770,7 +2773,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2780,7 +2783,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2803,7 +2806,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2820,7 +2823,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2836,7 +2839,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2853,7 +2856,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2869,7 +2872,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2886,7 +2889,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2902,7 +2905,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2935,7 +2938,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2945,14 +2948,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2961,14 +2964,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2978,14 +2981,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3001,7 +3004,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3011,11 +3014,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3027,20 +3030,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -3051,7 +3054,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3073,7 +3076,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3100,7 +3103,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3117,7 +3120,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3133,7 +3136,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3150,7 +3153,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3166,7 +3169,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3176,14 +3179,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3192,14 +3195,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3216,7 +3219,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3232,7 +3235,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3265,7 +3268,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3282,7 +3285,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3298,7 +3301,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3331,7 +3334,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3348,7 +3351,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3364,13 +3367,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3378,7 +3381,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3390,14 +3393,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3411,7 +3414,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3423,20 +3426,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3463,21 +3466,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3489,31 +3492,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3529,7 +3532,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3546,7 +3549,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3579,7 +3582,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3595,7 +3598,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3605,7 +3608,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3628,7 +3631,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3638,14 +3641,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3654,14 +3657,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3671,7 +3674,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3694,7 +3697,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3708,10 +3711,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3720,14 +3723,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3737,14 +3740,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3760,7 +3763,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3777,7 +3780,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3793,7 +3796,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3826,7 +3829,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3836,11 +3839,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3852,14 +3855,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3869,14 +3872,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3892,7 +3895,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3902,11 +3905,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3935,11 +3938,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3951,14 +3954,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3968,14 +3971,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3984,14 +3987,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4001,14 +4004,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4017,14 +4020,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4034,14 +4037,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4050,28 +4053,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4083,28 +4086,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4123,7 +4126,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4133,11 +4136,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4149,14 +4152,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4166,14 +4169,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4182,7 +4185,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4199,11 +4202,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4215,14 +4218,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4232,14 +4235,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4248,14 +4251,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4265,14 +4268,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4281,14 +4284,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4298,14 +4301,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>249</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4314,14 +4317,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4331,14 +4334,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4347,14 +4350,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4364,14 +4367,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4387,7 +4390,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4397,14 +4400,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4420,7 +4423,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4430,11 +4433,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4446,14 +4449,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4463,11 +4466,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4479,14 +4482,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4496,14 +4499,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4512,14 +4515,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4529,11 +4532,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4552,7 +4555,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4562,14 +4565,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4578,14 +4581,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4595,11 +4598,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4611,7 +4614,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4628,14 +4631,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4644,14 +4647,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4661,14 +4664,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4677,14 +4680,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4694,11 +4697,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4710,28 +4713,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4743,28 +4746,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4776,14 +4779,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4793,14 +4796,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4809,14 +4812,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4826,11 +4829,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4842,14 +4845,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4859,11 +4862,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>62</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4875,7 +4878,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4892,14 +4895,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4908,14 +4911,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4925,14 +4928,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4941,14 +4944,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4958,14 +4961,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4974,14 +4977,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4991,11 +4994,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -5007,7 +5010,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5024,11 +5027,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>114</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -5047,7 +5050,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5057,11 +5060,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5073,14 +5076,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5090,11 +5093,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5113,7 +5116,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5123,14 +5126,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5139,14 +5142,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5156,14 +5159,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5179,7 +5182,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5189,14 +5192,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>310</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5205,14 +5208,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5222,14 +5225,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>30</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5238,14 +5241,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5255,14 +5258,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5271,14 +5274,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5288,14 +5291,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>308</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5304,14 +5307,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5321,14 +5324,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5337,28 +5340,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>210</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5370,14 +5373,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5387,11 +5390,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>218</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5410,7 +5413,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5420,14 +5423,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5436,7 +5439,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5453,14 +5456,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>328</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5469,7 +5472,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5486,14 +5489,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>117</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5519,14 +5522,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5535,14 +5538,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5552,11 +5555,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5568,14 +5571,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5585,11 +5588,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5601,14 +5604,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5618,11 +5621,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5634,14 +5637,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5651,14 +5654,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5667,14 +5670,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5684,14 +5687,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>195</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5700,14 +5703,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>117</v>
+        <v>346</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5717,11 +5720,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5740,7 +5743,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5750,14 +5753,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5773,7 +5776,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5783,14 +5786,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>141</v>
+        <v>347</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5806,7 +5809,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5816,11 +5819,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
@@ -5832,14 +5835,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5849,11 +5852,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>179</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>20</v>
@@ -5872,7 +5875,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>177</v>
+        <v>309</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5882,49 +5885,82 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>6806.2399999999998</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
         <v>354</v>
       </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>180</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>54</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>347</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>6831.2399999999998</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
         <v>355</v>
       </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
         <v>356</v>
       </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>357</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6568,10 +6604,15 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -1076,7 +1076,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:02 PM</t>
+    <t>Saturday, 21 June, 2025 11:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>DEPAKINE 57.64MG/ML SYP. 125 ML</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>36.5000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -995,6 +1004,15 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1076,7 +1094,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:04 PM</t>
+    <t>Saturday, 21 June, 2025 11:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2641,7 +2659,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2651,14 +2669,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2667,14 +2685,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2691,7 +2709,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2707,7 +2725,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2717,14 +2735,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2733,14 +2751,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2750,14 +2768,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2773,7 +2791,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2783,7 +2801,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2806,7 +2824,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2816,7 +2834,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2839,7 +2857,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2856,7 +2874,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2872,7 +2890,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2889,7 +2907,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2905,7 +2923,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2922,7 +2940,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2938,7 +2956,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2971,7 +2989,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2981,14 +2999,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2997,14 +3015,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3037,7 +3055,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3047,11 +3065,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3063,20 +3081,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3087,7 +3105,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3109,7 +3127,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3136,7 +3154,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3153,7 +3171,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3169,7 +3187,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3186,7 +3204,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3202,7 +3220,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3212,14 +3230,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3252,7 +3270,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3268,7 +3286,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3301,7 +3319,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3318,7 +3336,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3334,7 +3352,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3367,7 +3385,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3384,7 +3402,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3400,13 +3418,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3414,7 +3432,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3426,14 +3444,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3447,7 +3465,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3459,20 +3477,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3499,21 +3517,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3525,31 +3543,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3565,7 +3583,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3582,7 +3600,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3615,7 +3633,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3631,7 +3649,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3641,7 +3659,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3664,7 +3682,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3674,14 +3692,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3690,14 +3708,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3707,7 +3725,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3730,7 +3748,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3744,10 +3762,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3756,14 +3774,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3773,14 +3791,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3796,7 +3814,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3813,7 +3831,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3829,7 +3847,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3839,11 +3857,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3855,14 +3873,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3872,11 +3890,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3888,14 +3906,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3905,14 +3923,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3921,14 +3939,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3938,11 +3956,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3954,7 +3972,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3971,11 +3989,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3994,7 +4012,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4008,10 +4026,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4020,14 +4038,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4037,14 +4055,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4060,7 +4078,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4070,14 +4088,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4099,15 +4117,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4119,28 +4137,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4152,14 +4170,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4169,11 +4187,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4192,7 +4210,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4209,7 +4227,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4258,7 +4276,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4275,7 +4293,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4291,7 +4309,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4308,7 +4326,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4324,7 +4342,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4334,14 +4352,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>250</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4357,7 +4375,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4367,14 +4385,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4383,14 +4401,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4400,14 +4418,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4433,14 +4451,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4449,14 +4467,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4466,11 +4484,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4489,7 +4507,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4499,11 +4517,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4515,14 +4533,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4532,14 +4550,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4548,14 +4566,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4565,11 +4583,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4581,14 +4599,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4598,14 +4616,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4614,14 +4632,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4631,11 +4649,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4671,7 +4689,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4687,7 +4705,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4704,7 +4722,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4720,7 +4738,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4730,11 +4748,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4746,24 +4764,24 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4786,13 +4804,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4819,7 +4837,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4836,7 +4854,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4852,7 +4870,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4862,11 +4880,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>62</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4878,14 +4896,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4895,7 +4913,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>62</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4935,7 +4953,7 @@
         <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4951,7 +4969,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4961,14 +4979,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4977,14 +4995,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4994,14 +5012,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5017,7 +5035,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5060,11 +5078,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5076,14 +5094,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5093,11 +5111,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5109,14 +5127,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5126,11 +5144,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5142,14 +5160,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5159,14 +5177,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>266</v>
+        <v>62</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5175,14 +5193,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5192,14 +5210,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>203</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5208,14 +5226,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5225,14 +5243,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>311</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5241,14 +5259,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5258,14 +5276,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>30</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5274,14 +5292,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5291,14 +5309,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5307,14 +5325,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5324,14 +5342,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>309</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5340,14 +5358,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5364,7 +5382,7 @@
         <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5380,21 +5398,21 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>91</v>
+        <v>312</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>85</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5406,7 +5424,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5423,11 +5441,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>219</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5439,14 +5457,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5456,14 +5474,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>221</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5472,7 +5490,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5489,14 +5507,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>329</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5505,14 +5523,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5522,14 +5540,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5538,7 +5556,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5555,14 +5573,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>20</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5571,14 +5589,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5588,14 +5606,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5604,14 +5622,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5625,7 +5643,7 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>339</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5637,7 +5655,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5654,11 +5672,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5670,14 +5688,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5687,14 +5705,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5703,14 +5721,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5724,7 +5742,7 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>198</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5736,14 +5754,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>120</v>
+        <v>306</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5753,14 +5771,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>347</v>
+        <v>249</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>198</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5769,14 +5787,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5786,14 +5804,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5802,14 +5820,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>303</v>
+        <v>123</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5819,11 +5837,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
@@ -5835,14 +5853,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5852,14 +5870,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>259</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5868,14 +5886,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5885,11 +5903,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>20</v>
@@ -5901,14 +5919,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>180</v>
+        <v>358</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5918,49 +5936,115 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>347</v>
+        <v>147</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>6831.2399999999998</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>355</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>356</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
-        <v>357</v>
-      </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>359</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>312</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>54</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>184</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>360</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>183</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>54</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>353</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>6967.7399999999998</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>361</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>362</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>363</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6609,10 +6693,20 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -719,6 +719,15 @@
     <t>PANGESTAZOL 40MG 14 TABS.</t>
   </si>
   <si>
+    <t>PANOX 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>PAROXEDEP CR 25 MG 30F.C.TAB</t>
   </si>
   <si>
@@ -863,7 +872,7 @@
     <t>152.00</t>
   </si>
   <si>
-    <t>76.0000</t>
+    <t>152.0000</t>
   </si>
   <si>
     <t>TIRATAM XR 750MG 20 F.C.TABS.</t>
@@ -1094,7 +1103,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:20 PM</t>
+    <t>Saturday, 21 June, 2025 11:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4210,7 +4219,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4243,7 +4252,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4260,7 +4269,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4309,7 +4318,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4326,7 +4335,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4342,7 +4351,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4359,7 +4368,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4375,7 +4384,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4385,14 +4394,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>253</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4408,7 +4417,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4451,14 +4460,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4517,11 +4526,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4540,7 +4549,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4550,11 +4559,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4566,14 +4575,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4583,14 +4592,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4616,11 +4625,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4632,14 +4641,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4649,14 +4658,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4665,14 +4674,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4682,11 +4691,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4722,7 +4731,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4738,7 +4747,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4755,7 +4764,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4771,7 +4780,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4781,11 +4790,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4797,24 +4806,24 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4837,13 +4846,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4870,7 +4879,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4903,7 +4912,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4913,11 +4922,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4929,14 +4938,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4946,7 +4955,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>62</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4986,7 +4995,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5002,7 +5011,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5012,14 +5021,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5028,14 +5037,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5045,14 +5054,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>205</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5068,7 +5077,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5111,11 +5120,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>121</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5127,14 +5136,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5144,11 +5153,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5160,14 +5169,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5177,11 +5186,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5193,14 +5202,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5210,14 +5219,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5226,14 +5235,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5243,14 +5252,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5259,14 +5268,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5276,14 +5285,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>314</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5292,14 +5301,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5309,14 +5318,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>30</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5325,14 +5334,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5342,14 +5351,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5358,14 +5367,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5375,14 +5384,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5391,14 +5400,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5415,7 +5424,7 @@
         <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5431,21 +5440,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>91</v>
+        <v>315</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5457,7 +5466,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5474,11 +5483,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>222</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5490,14 +5499,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5507,14 +5516,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>221</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5523,14 +5532,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5540,14 +5549,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>333</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5563,7 +5572,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5573,14 +5582,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>335</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5589,7 +5598,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5606,14 +5615,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>123</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5622,7 +5631,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5639,14 +5648,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5655,14 +5664,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5672,11 +5681,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>341</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5695,7 +5704,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>343</v>
+        <v>41</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5705,11 +5714,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>20</v>
@@ -5721,14 +5730,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5761,7 +5770,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5771,14 +5780,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>249</v>
+        <v>350</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5787,14 +5796,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5804,14 +5813,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>353</v>
+        <v>252</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>201</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5827,7 +5836,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>123</v>
+        <v>355</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5837,7 +5846,7 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
@@ -5853,14 +5862,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5870,14 +5879,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5886,14 +5895,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5903,14 +5912,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>147</v>
+        <v>356</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5919,14 +5928,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5940,7 +5949,7 @@
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>20</v>
@@ -5952,14 +5961,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5969,11 +5978,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>20</v>
@@ -5985,14 +5994,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6002,49 +6011,82 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>353</v>
+        <v>184</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>363</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>183</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>54</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>356</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
         <v>201</v>
       </c>
-      <c t="s" r="Q136" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>6967.7399999999998</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
-        <v>361</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
-        <v>362</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
-        <v>363</v>
-      </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c t="s" r="Q137" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>7083.3400000000001</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>364</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>365</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>366</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6703,10 +6745,15 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -1103,7 +1103,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:25 PM</t>
+    <t>Saturday, 21 June, 2025 11:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -728,6 +728,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>PAROXEDEP CR 25 MG 30F.C.TAB</t>
   </si>
   <si>
@@ -1103,7 +1112,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:33 PM</t>
+    <t>Saturday, 21 June, 2025 11:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4252,7 +4261,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4269,7 +4278,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4285,7 +4294,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4302,7 +4311,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4351,7 +4360,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4368,7 +4377,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4384,7 +4393,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4401,7 +4410,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4417,7 +4426,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4427,14 +4436,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>256</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4450,7 +4459,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4460,14 +4469,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4476,14 +4485,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4493,14 +4502,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4509,14 +4518,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4526,14 +4535,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4542,14 +4551,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4559,11 +4568,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4582,7 +4591,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4592,11 +4601,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4608,14 +4617,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4625,14 +4634,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4641,14 +4650,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4658,11 +4667,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4674,14 +4683,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4691,14 +4700,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4707,14 +4716,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4724,11 +4733,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4764,7 +4773,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4780,7 +4789,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4797,7 +4806,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4813,7 +4822,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4823,11 +4832,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4839,24 +4848,24 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4879,13 +4888,13 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4896,7 +4905,7 @@
         <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4912,7 +4921,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4945,7 +4954,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4955,11 +4964,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4971,14 +4980,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4988,7 +4997,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>62</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -5028,7 +5037,7 @@
         <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5044,7 +5053,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5054,14 +5063,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5070,14 +5079,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5087,14 +5096,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5110,7 +5119,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5153,11 +5162,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5169,14 +5178,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5186,11 +5195,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5202,14 +5211,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5219,11 +5228,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5235,14 +5244,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5252,14 +5261,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>272</v>
+        <v>62</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5268,14 +5277,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5285,14 +5294,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5301,14 +5310,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5318,14 +5327,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5334,14 +5343,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5351,14 +5360,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>30</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5367,14 +5376,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5384,14 +5393,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5400,14 +5409,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5417,14 +5426,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>315</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5433,14 +5442,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5457,7 +5466,7 @@
         <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>318</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5473,21 +5482,21 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>91</v>
+        <v>318</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5499,7 +5508,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5516,11 +5525,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5532,14 +5541,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5549,14 +5558,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>221</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5565,14 +5574,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5582,14 +5591,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5605,7 +5614,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5615,14 +5624,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>127</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>338</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5631,7 +5640,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5648,14 +5657,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>123</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5664,7 +5673,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5681,14 +5690,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5697,14 +5706,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5714,11 +5723,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>344</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>20</v>
@@ -5737,7 +5746,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5747,11 +5756,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5763,14 +5772,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5803,7 +5812,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5813,14 +5822,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5829,14 +5838,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5846,14 +5855,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>356</v>
+        <v>255</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>201</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5869,7 +5878,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>123</v>
+        <v>358</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5879,7 +5888,7 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
@@ -5895,14 +5904,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5912,14 +5921,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5928,14 +5937,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5945,14 +5954,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>147</v>
+        <v>359</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>265</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5961,14 +5970,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5982,7 +5991,7 @@
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>20</v>
@@ -5994,14 +6003,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6011,11 +6020,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>20</v>
@@ -6027,14 +6036,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6044,49 +6053,82 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>356</v>
+        <v>184</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>366</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>183</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>54</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>359</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
         <v>201</v>
       </c>
-      <c t="s" r="Q137" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>7083.3400000000001</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>364</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
-        <v>365</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
-        <v>366</v>
-      </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c t="s" r="Q138" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>7139.3400000000001</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>367</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>368</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>369</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6750,10 +6792,15 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -1112,7 +1112,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:39 PM</t>
+    <t>Saturday, 21 June, 2025 11:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -1112,7 +1112,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Saturday, 21 June, 2025 11:44 PM</t>
+    <t>Saturday, 21 June, 2025 11:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 12:07 AM</t>
+    <t>Sunday, 22 June, 2025 12:09 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 12:09 AM</t>
+    <t>Sunday, 22 June, 2025 12:17 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-21_00-00.xlsx
+++ b/DaySale_2025-06-21_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Sunday, 22 June, 2025 12:17 AM</t>
+    <t>Sunday, 22 June, 2025 12:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
